--- a/BackTest/2019-10-30 BackTest OGO.xlsx
+++ b/BackTest/2019-10-30 BackTest OGO.xlsx
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -11412,10 +11412,10 @@
         <v>0</v>
       </c>
       <c r="J315" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="K315" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
@@ -11451,10 +11451,10 @@
         <v>0</v>
       </c>
       <c r="J316" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="K316" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -11494,10 +11494,10 @@
         <v>0</v>
       </c>
       <c r="J317" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="K317" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -11537,10 +11537,10 @@
         <v>0</v>
       </c>
       <c r="J318" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K318" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>22.4</v>
       </c>
       <c r="K319" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -11617,16 +11617,14 @@
         <v>22.87499999999998</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -11660,16 +11658,14 @@
         <v>22.83499999999998</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -11703,16 +11699,14 @@
         <v>22.81999999999998</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -11746,16 +11740,14 @@
         <v>22.77999999999998</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -11789,16 +11781,14 @@
         <v>22.75499999999998</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>22.9</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -11832,16 +11822,14 @@
         <v>22.73499999999998</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>22.9</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -11875,16 +11863,14 @@
         <v>22.72999999999998</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>22.9</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -11918,16 +11904,14 @@
         <v>22.72499999999997</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>22.9</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -11961,16 +11945,14 @@
         <v>22.72999999999998</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -12004,16 +11986,14 @@
         <v>22.74999999999998</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>23.4</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -12047,16 +12027,14 @@
         <v>22.77499999999997</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -12090,16 +12068,14 @@
         <v>22.77999999999998</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>23</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -12133,16 +12109,14 @@
         <v>22.82499999999997</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>23.7</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -12176,16 +12150,14 @@
         <v>22.87999999999997</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>23.6</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -12219,16 +12191,14 @@
         <v>22.94499999999998</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>23.7</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -12269,7 +12239,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -12310,7 +12280,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -12351,7 +12321,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -12392,7 +12362,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -12433,7 +12403,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -12474,7 +12444,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -12515,7 +12485,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -12556,7 +12526,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -12597,7 +12567,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -12638,7 +12608,7 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -12679,7 +12649,7 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -12720,7 +12690,7 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -12761,7 +12731,7 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>

--- a/BackTest/2019-10-30 BackTest OGO.xlsx
+++ b/BackTest/2019-10-30 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M347"/>
+  <dimension ref="A1:M348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
         <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>12420</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="n">
-        <v>23.98000000000001</v>
+        <v>24.39833333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
         <v>24.3</v>
@@ -477,13 +477,13 @@
         <v>24.3</v>
       </c>
       <c r="E3" t="n">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
-        <v>46461.05513333334</v>
+        <v>12420</v>
       </c>
       <c r="G3" t="n">
-        <v>23.99500000000001</v>
+        <v>24.38666666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>24.3</v>
       </c>
       <c r="F4" t="n">
-        <v>93958.24526666666</v>
+        <v>46461.05513333334</v>
       </c>
       <c r="G4" t="n">
-        <v>24.01000000000001</v>
+        <v>24.375</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>24.3</v>
       </c>
       <c r="F5" t="n">
-        <v>4298.0246</v>
+        <v>93958.24526666666</v>
       </c>
       <c r="G5" t="n">
-        <v>24.02500000000001</v>
+        <v>24.36333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="C6" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="D6" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="E6" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="F6" t="n">
-        <v>21569</v>
+        <v>4298.0246</v>
       </c>
       <c r="G6" t="n">
-        <v>24.03000000000001</v>
+        <v>24.35166666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="C7" t="n">
         <v>24.5</v>
@@ -617,13 +617,13 @@
         <v>24.5</v>
       </c>
       <c r="E7" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="F7" t="n">
-        <v>51384.2331</v>
+        <v>21569</v>
       </c>
       <c r="G7" t="n">
-        <v>24.05000000000001</v>
+        <v>24.34333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="C8" t="n">
         <v>24.5</v>
@@ -655,10 +655,10 @@
         <v>24.4</v>
       </c>
       <c r="F8" t="n">
-        <v>45163.4144</v>
+        <v>51384.2331</v>
       </c>
       <c r="G8" t="n">
-        <v>24.07500000000001</v>
+        <v>24.33499999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="C9" t="n">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="D9" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="E9" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="F9" t="n">
-        <v>8578.5</v>
+        <v>45163.4144</v>
       </c>
       <c r="G9" t="n">
-        <v>24.08500000000001</v>
+        <v>24.32833333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="C10" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="D10" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="E10" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="F10" t="n">
-        <v>5965</v>
+        <v>8578.5</v>
       </c>
       <c r="G10" t="n">
-        <v>24.10000000000001</v>
+        <v>24.31499999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="C11" t="n">
         <v>24.4</v>
@@ -757,13 +757,13 @@
         <v>24.4</v>
       </c>
       <c r="E11" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="F11" t="n">
-        <v>102330.9426</v>
+        <v>5965</v>
       </c>
       <c r="G11" t="n">
-        <v>24.12000000000001</v>
+        <v>24.31499999999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>24.4</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>102330.9426</v>
       </c>
       <c r="G12" t="n">
-        <v>24.14000000000001</v>
+        <v>24.31499999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="C13" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="D13" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="E13" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="F13" t="n">
-        <v>501</v>
+        <v>50</v>
       </c>
       <c r="G13" t="n">
-        <v>24.15500000000001</v>
+        <v>24.31333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>24.3</v>
       </c>
       <c r="F14" t="n">
-        <v>4000</v>
+        <v>501</v>
       </c>
       <c r="G14" t="n">
-        <v>24.17000000000001</v>
+        <v>24.30499999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>24.3</v>
       </c>
       <c r="C15" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="D15" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="E15" t="n">
         <v>24.3</v>
       </c>
       <c r="F15" t="n">
-        <v>11200</v>
+        <v>4000</v>
       </c>
       <c r="G15" t="n">
-        <v>24.19000000000001</v>
+        <v>24.30166666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>24.3</v>
       </c>
       <c r="C16" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="D16" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="E16" t="n">
         <v>24.3</v>
       </c>
       <c r="F16" t="n">
-        <v>45991.2599</v>
+        <v>11200</v>
       </c>
       <c r="G16" t="n">
-        <v>24.22000000000001</v>
+        <v>24.30333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>24.3</v>
       </c>
       <c r="C17" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="D17" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="E17" t="n">
         <v>24.3</v>
       </c>
       <c r="F17" t="n">
-        <v>36145</v>
+        <v>45991.2599</v>
       </c>
       <c r="G17" t="n">
-        <v>24.23500000000001</v>
+        <v>24.29999999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="C18" t="n">
         <v>24.4</v>
@@ -1002,13 +1002,13 @@
         <v>24.4</v>
       </c>
       <c r="E18" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="F18" t="n">
-        <v>44918.8992</v>
+        <v>36145</v>
       </c>
       <c r="G18" t="n">
-        <v>24.25500000000001</v>
+        <v>24.29333333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>24.4</v>
       </c>
       <c r="F19" t="n">
-        <v>4000</v>
+        <v>44918.8992</v>
       </c>
       <c r="G19" t="n">
-        <v>24.27500000000001</v>
+        <v>24.28666666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="C20" t="n">
-        <v>24</v>
+        <v>24.4</v>
       </c>
       <c r="D20" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="E20" t="n">
-        <v>24</v>
+        <v>24.4</v>
       </c>
       <c r="F20" t="n">
-        <v>46780.2114</v>
+        <v>4000</v>
       </c>
       <c r="G20" t="n">
-        <v>24.28000000000001</v>
+        <v>24.27833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="C21" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="D21" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="E21" t="n">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="F21" t="n">
-        <v>9336</v>
+        <v>46780.2114</v>
       </c>
       <c r="G21" t="n">
-        <v>24.29500000000001</v>
+        <v>24.26</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>24.3</v>
       </c>
       <c r="C22" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="D22" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="E22" t="n">
         <v>24.3</v>
       </c>
       <c r="F22" t="n">
-        <v>37279</v>
+        <v>9336</v>
       </c>
       <c r="G22" t="n">
-        <v>24.31000000000001</v>
+        <v>24.24833333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>24.3</v>
       </c>
       <c r="F23" t="n">
-        <v>400</v>
+        <v>37279</v>
       </c>
       <c r="G23" t="n">
-        <v>24.31000000000001</v>
+        <v>24.235</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>24.3</v>
       </c>
       <c r="F24" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G24" t="n">
-        <v>24.31000000000001</v>
+        <v>24.225</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>24.3</v>
       </c>
       <c r="C25" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="D25" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="E25" t="n">
         <v>24.3</v>
       </c>
       <c r="F25" t="n">
-        <v>19152</v>
+        <v>800</v>
       </c>
       <c r="G25" t="n">
-        <v>24.31000000000001</v>
+        <v>24.225</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="C26" t="n">
         <v>24.4</v>
@@ -1282,13 +1282,13 @@
         <v>24.4</v>
       </c>
       <c r="E26" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="F26" t="n">
-        <v>4000</v>
+        <v>19152</v>
       </c>
       <c r="G26" t="n">
-        <v>24.32500000000001</v>
+        <v>24.22166666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>24.4</v>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G27" t="n">
-        <v>24.32500000000001</v>
+        <v>24.21666666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="C28" t="n">
         <v>24.4</v>
@@ -1352,13 +1352,13 @@
         <v>24.4</v>
       </c>
       <c r="E28" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="F28" t="n">
-        <v>37008</v>
+        <v>100</v>
       </c>
       <c r="G28" t="n">
-        <v>24.31500000000001</v>
+        <v>24.21666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="C29" t="n">
         <v>24.4</v>
@@ -1387,13 +1387,13 @@
         <v>24.4</v>
       </c>
       <c r="E29" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="F29" t="n">
-        <v>28000</v>
+        <v>37008</v>
       </c>
       <c r="G29" t="n">
-        <v>24.32500000000001</v>
+        <v>24.22000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>24.4</v>
       </c>
       <c r="C30" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="D30" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="E30" t="n">
         <v>24.4</v>
       </c>
       <c r="F30" t="n">
-        <v>36301.7473</v>
+        <v>28000</v>
       </c>
       <c r="G30" t="n">
-        <v>24.33000000000001</v>
+        <v>24.21833333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="C31" t="n">
         <v>24.5</v>
@@ -1457,13 +1457,13 @@
         <v>24.5</v>
       </c>
       <c r="E31" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="F31" t="n">
-        <v>27509.2693</v>
+        <v>36301.7473</v>
       </c>
       <c r="G31" t="n">
-        <v>24.33500000000001</v>
+        <v>24.23166666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="C32" t="n">
         <v>24.5</v>
@@ -1492,13 +1492,13 @@
         <v>24.5</v>
       </c>
       <c r="E32" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="F32" t="n">
-        <v>2800</v>
+        <v>27509.2693</v>
       </c>
       <c r="G32" t="n">
-        <v>24.32500000000001</v>
+        <v>24.23333333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="C33" t="n">
         <v>24.5</v>
@@ -1527,13 +1527,13 @@
         <v>24.5</v>
       </c>
       <c r="E33" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="F33" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="G33" t="n">
-        <v>24.33500000000001</v>
+        <v>24.23333333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>24.5</v>
       </c>
       <c r="F34" t="n">
-        <v>8111</v>
+        <v>2000</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34500000000001</v>
+        <v>24.23333333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>24.5</v>
       </c>
       <c r="F35" t="n">
-        <v>36841</v>
+        <v>8111</v>
       </c>
       <c r="G35" t="n">
-        <v>24.35500000000001</v>
+        <v>24.23333333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>24.5</v>
       </c>
       <c r="F36" t="n">
-        <v>45496</v>
+        <v>36841</v>
       </c>
       <c r="G36" t="n">
-        <v>24.36500000000001</v>
+        <v>24.23333333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>24.5</v>
       </c>
       <c r="F37" t="n">
-        <v>159</v>
+        <v>45496</v>
       </c>
       <c r="G37" t="n">
-        <v>24.37500000000001</v>
+        <v>24.23333333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>24.5</v>
       </c>
       <c r="C38" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="D38" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E38" t="n">
         <v>24.5</v>
       </c>
       <c r="F38" t="n">
-        <v>40000</v>
+        <v>159</v>
       </c>
       <c r="G38" t="n">
-        <v>24.38000000000001</v>
+        <v>24.23333333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="C39" t="n">
         <v>24.6</v>
@@ -1737,13 +1737,13 @@
         <v>24.6</v>
       </c>
       <c r="E39" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="F39" t="n">
-        <v>78450</v>
+        <v>40000</v>
       </c>
       <c r="G39" t="n">
-        <v>24.39000000000001</v>
+        <v>24.235</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>24.6</v>
       </c>
       <c r="F40" t="n">
-        <v>282</v>
+        <v>78450</v>
       </c>
       <c r="G40" t="n">
-        <v>24.41500000000001</v>
+        <v>24.245</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>24.6</v>
       </c>
       <c r="F41" t="n">
-        <v>10834</v>
+        <v>282</v>
       </c>
       <c r="G41" t="n">
-        <v>24.43000000000001</v>
+        <v>24.255</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>24.6</v>
       </c>
       <c r="F42" t="n">
-        <v>10981</v>
+        <v>10834</v>
       </c>
       <c r="G42" t="n">
-        <v>24.44500000000001</v>
+        <v>24.265</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>24.6</v>
       </c>
       <c r="F43" t="n">
-        <v>19710.9756</v>
+        <v>10981</v>
       </c>
       <c r="G43" t="n">
-        <v>24.46</v>
+        <v>24.275</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="C44" t="n">
-        <v>24.1</v>
+        <v>24.6</v>
       </c>
       <c r="D44" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="E44" t="n">
-        <v>24.1</v>
+        <v>24.6</v>
       </c>
       <c r="F44" t="n">
-        <v>19661.6982</v>
+        <v>19710.9756</v>
       </c>
       <c r="G44" t="n">
-        <v>24.46500000000001</v>
+        <v>24.28499999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="C45" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="D45" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="E45" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="F45" t="n">
-        <v>57449.5441</v>
+        <v>19661.6982</v>
       </c>
       <c r="G45" t="n">
-        <v>24.46</v>
+        <v>24.28666666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="C46" t="n">
         <v>24</v>
       </c>
       <c r="D46" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="E46" t="n">
         <v>24</v>
       </c>
       <c r="F46" t="n">
-        <v>19690.5121</v>
+        <v>57449.5441</v>
       </c>
       <c r="G46" t="n">
-        <v>24.44</v>
+        <v>24.28666666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>24</v>
       </c>
       <c r="C47" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="D47" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="E47" t="n">
         <v>24</v>
       </c>
       <c r="F47" t="n">
-        <v>65732.1525</v>
+        <v>19690.5121</v>
       </c>
       <c r="G47" t="n">
-        <v>24.42000000000001</v>
+        <v>24.28666666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>24</v>
       </c>
       <c r="C48" t="n">
-        <v>23.9</v>
+        <v>24.4</v>
       </c>
       <c r="D48" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="E48" t="n">
         <v>24</v>
       </c>
-      <c r="E48" t="n">
-        <v>23.9</v>
-      </c>
       <c r="F48" t="n">
-        <v>18570.6235</v>
+        <v>65732.1525</v>
       </c>
       <c r="G48" t="n">
-        <v>24.405</v>
+        <v>24.29333333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>24</v>
+      </c>
+      <c r="C49" t="n">
         <v>23.9</v>
-      </c>
-      <c r="C49" t="n">
-        <v>24</v>
       </c>
       <c r="D49" t="n">
         <v>24</v>
@@ -2090,10 +2090,10 @@
         <v>23.9</v>
       </c>
       <c r="F49" t="n">
-        <v>29868.0399</v>
+        <v>18570.6235</v>
       </c>
       <c r="G49" t="n">
-        <v>24.38000000000001</v>
+        <v>24.29166666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="C50" t="n">
         <v>24</v>
@@ -2122,13 +2122,13 @@
         <v>24</v>
       </c>
       <c r="E50" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="F50" t="n">
-        <v>564</v>
+        <v>29868.0399</v>
       </c>
       <c r="G50" t="n">
-        <v>24.36000000000001</v>
+        <v>24.29166666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>24</v>
       </c>
       <c r="F51" t="n">
-        <v>15851.2288</v>
+        <v>564</v>
       </c>
       <c r="G51" t="n">
-        <v>24.33500000000001</v>
+        <v>24.29166666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="C52" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D52" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="E52" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="F52" t="n">
-        <v>54140.6352</v>
+        <v>15851.2288</v>
       </c>
       <c r="G52" t="n">
-        <v>24.30500000000001</v>
+        <v>24.29166666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>24.3</v>
+        <v>23.6</v>
       </c>
       <c r="C53" t="n">
-        <v>24.3</v>
+        <v>23.6</v>
       </c>
       <c r="D53" t="n">
-        <v>24.3</v>
+        <v>23.6</v>
       </c>
       <c r="E53" t="n">
-        <v>24.3</v>
+        <v>23.6</v>
       </c>
       <c r="F53" t="n">
-        <v>71229</v>
+        <v>54140.6352</v>
       </c>
       <c r="G53" t="n">
-        <v>24.29500000000001</v>
+        <v>24.28499999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>23.7</v>
+        <v>24.3</v>
       </c>
       <c r="C54" t="n">
-        <v>23.7</v>
+        <v>24.3</v>
       </c>
       <c r="D54" t="n">
-        <v>23.7</v>
+        <v>24.3</v>
       </c>
       <c r="E54" t="n">
-        <v>23.7</v>
+        <v>24.3</v>
       </c>
       <c r="F54" t="n">
-        <v>18143.3178</v>
+        <v>71229</v>
       </c>
       <c r="G54" t="n">
-        <v>24.25500000000001</v>
+        <v>24.29</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="C55" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="D55" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="E55" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="F55" t="n">
-        <v>4057</v>
+        <v>18143.3178</v>
       </c>
       <c r="G55" t="n">
-        <v>24.23000000000001</v>
+        <v>24.28499999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="C56" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="D56" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="E56" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="F56" t="n">
-        <v>4016</v>
+        <v>4057</v>
       </c>
       <c r="G56" t="n">
-        <v>24.20000000000001</v>
+        <v>24.29</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="C57" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="D57" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="E57" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="F57" t="n">
-        <v>10083.3266</v>
+        <v>4016</v>
       </c>
       <c r="G57" t="n">
-        <v>24.18000000000001</v>
+        <v>24.29333333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="C58" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="D58" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="E58" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="F58" t="n">
-        <v>109463.0079</v>
+        <v>10083.3266</v>
       </c>
       <c r="G58" t="n">
-        <v>24.17000000000001</v>
+        <v>24.29499999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C59" t="n">
         <v>24.4</v>
       </c>
-      <c r="C59" t="n">
-        <v>24.5</v>
-      </c>
       <c r="D59" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="E59" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="F59" t="n">
-        <v>69919</v>
+        <v>109463.0079</v>
       </c>
       <c r="G59" t="n">
-        <v>24.16000000000001</v>
+        <v>24.30166666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="C60" t="n">
         <v>24.5</v>
@@ -2472,13 +2472,13 @@
         <v>24.5</v>
       </c>
       <c r="E60" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="F60" t="n">
-        <v>2000</v>
+        <v>69919</v>
       </c>
       <c r="G60" t="n">
-        <v>24.15500000000001</v>
+        <v>24.31</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>24.5</v>
       </c>
       <c r="F61" t="n">
-        <v>44662.5325</v>
+        <v>2000</v>
       </c>
       <c r="G61" t="n">
-        <v>24.15000000000001</v>
+        <v>24.31833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="C62" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="D62" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E62" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="F62" t="n">
-        <v>178927.8861</v>
+        <v>44662.5325</v>
       </c>
       <c r="G62" t="n">
-        <v>24.15000000000001</v>
+        <v>24.32666666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>24.6</v>
       </c>
       <c r="F63" t="n">
-        <v>18938.8501</v>
+        <v>178927.8861</v>
       </c>
       <c r="G63" t="n">
-        <v>24.15000000000001</v>
+        <v>24.33166666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="C64" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="D64" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="E64" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="F64" t="n">
-        <v>81868.50199999999</v>
+        <v>18938.8501</v>
       </c>
       <c r="G64" t="n">
-        <v>24.16500000000001</v>
+        <v>24.33666666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="C65" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="D65" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="E65" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="F65" t="n">
-        <v>3160.2802</v>
+        <v>81868.50199999999</v>
       </c>
       <c r="G65" t="n">
-        <v>24.18500000000001</v>
+        <v>24.34333333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>24.6</v>
       </c>
       <c r="F66" t="n">
-        <v>666</v>
+        <v>3160.2802</v>
       </c>
       <c r="G66" t="n">
-        <v>24.21500000000001</v>
+        <v>24.34833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>24.6</v>
       </c>
       <c r="F67" t="n">
-        <v>5337</v>
+        <v>666</v>
       </c>
       <c r="G67" t="n">
-        <v>24.24500000000001</v>
+        <v>24.34999999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>24.6</v>
       </c>
       <c r="F68" t="n">
-        <v>8000</v>
+        <v>5337</v>
       </c>
       <c r="G68" t="n">
-        <v>24.27500000000001</v>
+        <v>24.35166666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2781,19 +2781,19 @@
         <v>24.6</v>
       </c>
       <c r="C69" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="D69" t="n">
         <v>24.6</v>
       </c>
       <c r="E69" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="F69" t="n">
-        <v>27267.0291</v>
+        <v>8000</v>
       </c>
       <c r="G69" t="n">
-        <v>24.31000000000001</v>
+        <v>24.35333333333332</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="C70" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="D70" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="E70" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="F70" t="n">
-        <v>22494.1437</v>
+        <v>27267.0291</v>
       </c>
       <c r="G70" t="n">
-        <v>24.33000000000001</v>
+        <v>24.35999999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="C71" t="n">
         <v>24.3</v>
       </c>
       <c r="D71" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="E71" t="n">
         <v>24.3</v>
       </c>
       <c r="F71" t="n">
-        <v>28919.1829</v>
+        <v>22494.1437</v>
       </c>
       <c r="G71" t="n">
-        <v>24.34500000000001</v>
+        <v>24.35833333333332</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="C72" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="D72" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="E72" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>28919.1829</v>
       </c>
       <c r="G72" t="n">
-        <v>24.39000000000001</v>
+        <v>24.35666666666665</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="C73" t="n">
-        <v>22.7</v>
+        <v>24.5</v>
       </c>
       <c r="D73" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="E73" t="n">
-        <v>22.7</v>
+        <v>24.5</v>
       </c>
       <c r="F73" t="n">
-        <v>81868.5019</v>
+        <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>24.37500000000001</v>
+        <v>24.35833333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="C74" t="n">
-        <v>24.5</v>
+        <v>22.7</v>
       </c>
       <c r="D74" t="n">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="E74" t="n">
-        <v>24.5</v>
+        <v>22.7</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>81868.5019</v>
       </c>
       <c r="G74" t="n">
-        <v>24.41500000000001</v>
+        <v>24.33166666666665</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>23.9</v>
+        <v>24.5</v>
       </c>
       <c r="C75" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="D75" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="E75" t="n">
-        <v>23.8</v>
+        <v>24.5</v>
       </c>
       <c r="F75" t="n">
-        <v>251283.3359</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>24.41000000000001</v>
+        <v>24.33499999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="C76" t="n">
-        <v>24.1</v>
+        <v>24.6</v>
       </c>
       <c r="D76" t="n">
-        <v>24.2</v>
+        <v>25.3</v>
       </c>
       <c r="E76" t="n">
-        <v>24.1</v>
+        <v>23.8</v>
       </c>
       <c r="F76" t="n">
-        <v>78228.64969999999</v>
+        <v>251283.3359</v>
       </c>
       <c r="G76" t="n">
-        <v>24.42000000000002</v>
+        <v>24.33833333333332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3064,16 +3064,16 @@
         <v>24.1</v>
       </c>
       <c r="D77" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="E77" t="n">
         <v>24.1</v>
       </c>
       <c r="F77" t="n">
-        <v>3000</v>
+        <v>78228.64969999999</v>
       </c>
       <c r="G77" t="n">
-        <v>24.42000000000002</v>
+        <v>24.33499999999998</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         <v>24.1</v>
       </c>
       <c r="F78" t="n">
-        <v>176.7635</v>
+        <v>3000</v>
       </c>
       <c r="G78" t="n">
-        <v>24.41000000000002</v>
+        <v>24.32999999999998</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="C79" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="D79" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="E79" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="F79" t="n">
-        <v>900</v>
+        <v>176.7635</v>
       </c>
       <c r="G79" t="n">
-        <v>24.40500000000002</v>
+        <v>24.32499999999998</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="C80" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="D80" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="E80" t="n">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="F80" t="n">
-        <v>4537</v>
+        <v>900</v>
       </c>
       <c r="G80" t="n">
-        <v>24.38000000000002</v>
+        <v>24.32333333333331</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="C81" t="n">
         <v>24.1</v>
@@ -3207,13 +3207,13 @@
         <v>24.1</v>
       </c>
       <c r="E81" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="F81" t="n">
-        <v>5000</v>
+        <v>4537</v>
       </c>
       <c r="G81" t="n">
-        <v>24.36000000000002</v>
+        <v>24.32499999999997</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="C82" t="n">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="D82" t="n">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="E82" t="n">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="F82" t="n">
-        <v>5625.6557</v>
+        <v>5000</v>
       </c>
       <c r="G82" t="n">
-        <v>24.31500000000002</v>
+        <v>24.31999999999997</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>23.7</v>
       </c>
       <c r="C83" t="n">
-        <v>22.9</v>
+        <v>23.7</v>
       </c>
       <c r="D83" t="n">
         <v>23.7</v>
       </c>
       <c r="E83" t="n">
-        <v>22.9</v>
+        <v>23.7</v>
       </c>
       <c r="F83" t="n">
-        <v>78228.6498</v>
+        <v>5625.6557</v>
       </c>
       <c r="G83" t="n">
-        <v>24.27000000000002</v>
+        <v>24.30999999999997</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>24.1</v>
+        <v>23.7</v>
       </c>
       <c r="C84" t="n">
-        <v>24.2</v>
+        <v>22.9</v>
       </c>
       <c r="D84" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="E84" t="n">
-        <v>24</v>
+        <v>22.9</v>
       </c>
       <c r="F84" t="n">
-        <v>19187.333</v>
+        <v>78228.6498</v>
       </c>
       <c r="G84" t="n">
-        <v>24.24000000000002</v>
+        <v>24.28666666666664</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C85" t="n">
         <v>24.2</v>
       </c>
-      <c r="C85" t="n">
-        <v>24.9</v>
-      </c>
       <c r="D85" t="n">
-        <v>24.9</v>
+        <v>24.2</v>
       </c>
       <c r="E85" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="F85" t="n">
-        <v>4000</v>
+        <v>19187.333</v>
       </c>
       <c r="G85" t="n">
-        <v>24.22000000000002</v>
+        <v>24.28499999999998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="C86" t="n">
-        <v>24.3</v>
+        <v>24.9</v>
       </c>
       <c r="D86" t="n">
-        <v>24.3</v>
+        <v>24.9</v>
       </c>
       <c r="E86" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="F86" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G86" t="n">
-        <v>24.20500000000002</v>
+        <v>24.29333333333331</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>23.5</v>
+        <v>24.3</v>
       </c>
       <c r="C87" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="D87" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="E87" t="n">
-        <v>23</v>
+        <v>24.3</v>
       </c>
       <c r="F87" t="n">
-        <v>142419.3004</v>
+        <v>6000</v>
       </c>
       <c r="G87" t="n">
-        <v>24.15000000000001</v>
+        <v>24.29166666666664</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>24.2</v>
+        <v>23.5</v>
       </c>
       <c r="C88" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="D88" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="E88" t="n">
-        <v>24.2</v>
+        <v>23</v>
       </c>
       <c r="F88" t="n">
-        <v>16529</v>
+        <v>142419.3004</v>
       </c>
       <c r="G88" t="n">
-        <v>24.13000000000001</v>
+        <v>24.29499999999997</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3481,19 +3481,19 @@
         <v>24.2</v>
       </c>
       <c r="C89" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="D89" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="E89" t="n">
         <v>24.2</v>
       </c>
       <c r="F89" t="n">
-        <v>8028</v>
+        <v>16529</v>
       </c>
       <c r="G89" t="n">
-        <v>24.11000000000001</v>
+        <v>24.2933333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="C90" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="D90" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="E90" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="F90" t="n">
-        <v>2000</v>
+        <v>8028</v>
       </c>
       <c r="G90" t="n">
-        <v>24.12000000000001</v>
+        <v>24.2983333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="C91" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="D91" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="E91" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="F91" t="n">
-        <v>393.738</v>
+        <v>2000</v>
       </c>
       <c r="G91" t="n">
-        <v>24.09000000000001</v>
+        <v>24.29999999999997</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="C92" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="D92" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="E92" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="F92" t="n">
-        <v>730</v>
+        <v>393.738</v>
       </c>
       <c r="G92" t="n">
-        <v>24.06500000000001</v>
+        <v>24.28666666666663</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="C93" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="D93" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="E93" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="F93" t="n">
-        <v>1000</v>
+        <v>730</v>
       </c>
       <c r="G93" t="n">
-        <v>24.07000000000001</v>
+        <v>24.28166666666663</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3656,19 @@
         <v>24.1</v>
       </c>
       <c r="C94" t="n">
-        <v>24.7</v>
+        <v>24.1</v>
       </c>
       <c r="D94" t="n">
-        <v>24.7</v>
+        <v>24.1</v>
       </c>
       <c r="E94" t="n">
         <v>24.1</v>
       </c>
       <c r="F94" t="n">
-        <v>14131</v>
+        <v>1000</v>
       </c>
       <c r="G94" t="n">
-        <v>24.05000000000001</v>
+        <v>24.27499999999997</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>24.6</v>
+        <v>24.1</v>
       </c>
       <c r="C95" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="D95" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="E95" t="n">
-        <v>24.6</v>
+        <v>24.1</v>
       </c>
       <c r="F95" t="n">
-        <v>4000</v>
+        <v>14131</v>
       </c>
       <c r="G95" t="n">
-        <v>24.08500000000002</v>
+        <v>24.2783333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="C96" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="D96" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="E96" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="F96" t="n">
         <v>4000</v>
       </c>
       <c r="G96" t="n">
-        <v>24.10000000000002</v>
+        <v>24.27999999999997</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +3761,19 @@
         <v>24.4</v>
       </c>
       <c r="C97" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="D97" t="n">
         <v>24.4</v>
       </c>
       <c r="E97" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="F97" t="n">
-        <v>17707.9839</v>
+        <v>4000</v>
       </c>
       <c r="G97" t="n">
-        <v>24.11500000000001</v>
+        <v>24.2783333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>24.4</v>
       </c>
       <c r="C98" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="D98" t="n">
         <v>24.4</v>
       </c>
       <c r="E98" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="F98" t="n">
-        <v>1809.5422</v>
+        <v>17707.9839</v>
       </c>
       <c r="G98" t="n">
-        <v>24.13000000000001</v>
+        <v>24.27499999999997</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>24.4</v>
       </c>
       <c r="F99" t="n">
-        <v>4000</v>
+        <v>1809.5422</v>
       </c>
       <c r="G99" t="n">
-        <v>24.13500000000001</v>
+        <v>24.27166666666664</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="C100" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="D100" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="E100" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="F100" t="n">
-        <v>60</v>
+        <v>4000</v>
       </c>
       <c r="G100" t="n">
-        <v>24.16000000000001</v>
+        <v>24.26833333333331</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>24.5</v>
       </c>
       <c r="F101" t="n">
-        <v>13559.7142</v>
+        <v>60</v>
       </c>
       <c r="G101" t="n">
-        <v>24.18000000000001</v>
+        <v>24.26666666666664</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3936,19 +3936,19 @@
         <v>24.5</v>
       </c>
       <c r="C102" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="D102" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E102" t="n">
         <v>24.5</v>
       </c>
       <c r="F102" t="n">
-        <v>17000</v>
+        <v>13559.7142</v>
       </c>
       <c r="G102" t="n">
-        <v>24.22000000000001</v>
+        <v>24.26499999999998</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="C103" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="D103" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="E103" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F103" t="n">
-        <v>2961.6719</v>
+        <v>17000</v>
       </c>
       <c r="G103" t="n">
-        <v>24.27000000000001</v>
+        <v>24.26499999999998</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4006,19 +4006,19 @@
         <v>24.7</v>
       </c>
       <c r="C104" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="D104" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="E104" t="n">
         <v>24.7</v>
       </c>
       <c r="F104" t="n">
-        <v>46949.4454264</v>
+        <v>2961.6719</v>
       </c>
       <c r="G104" t="n">
-        <v>24.3</v>
+        <v>24.26666666666664</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="C105" t="n">
         <v>25</v>
@@ -4047,13 +4047,13 @@
         <v>25</v>
       </c>
       <c r="E105" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="F105" t="n">
-        <v>19474.2</v>
+        <v>46949.4454264</v>
       </c>
       <c r="G105" t="n">
-        <v>24.34000000000001</v>
+        <v>24.28166666666664</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C106" t="n">
         <v>25</v>
@@ -4082,13 +4082,13 @@
         <v>25</v>
       </c>
       <c r="E106" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="F106" t="n">
-        <v>19169.9761736</v>
+        <v>19474.2</v>
       </c>
       <c r="G106" t="n">
-        <v>24.37</v>
+        <v>24.29833333333331</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="C107" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="E107" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="F107" t="n">
-        <v>19533.54569960159</v>
+        <v>19169.9761736</v>
       </c>
       <c r="G107" t="n">
-        <v>24.45000000000001</v>
+        <v>24.31499999999998</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4146,19 +4146,19 @@
         <v>25.1</v>
       </c>
       <c r="C108" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="D108" t="n">
         <v>25.1</v>
       </c>
       <c r="E108" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="F108" t="n">
-        <v>15715.3428</v>
+        <v>19533.54569960159</v>
       </c>
       <c r="G108" t="n">
-        <v>24.49500000000001</v>
+        <v>24.32666666666664</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,19 +4181,19 @@
         <v>25.1</v>
       </c>
       <c r="C109" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="D109" t="n">
         <v>25.1</v>
       </c>
       <c r="E109" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="F109" t="n">
-        <v>8943.984</v>
+        <v>15715.3428</v>
       </c>
       <c r="G109" t="n">
-        <v>24.54000000000001</v>
+        <v>24.34499999999997</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>25.1</v>
       </c>
       <c r="F110" t="n">
-        <v>71781.70790039841</v>
+        <v>8943.984</v>
       </c>
       <c r="G110" t="n">
-        <v>24.565</v>
+        <v>24.3633333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="C111" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="D111" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="E111" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="F111" t="n">
-        <v>87796.7274</v>
+        <v>71781.70790039841</v>
       </c>
       <c r="G111" t="n">
-        <v>24.645</v>
+        <v>24.38166666666664</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D112" t="n">
         <v>25.4</v>
       </c>
-      <c r="C112" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D112" t="n">
-        <v>25.8</v>
-      </c>
       <c r="E112" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="F112" t="n">
-        <v>59958.3399</v>
+        <v>87796.7274</v>
       </c>
       <c r="G112" t="n">
-        <v>24.715</v>
+        <v>24.4033333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C113" t="n">
         <v>25.8</v>
       </c>
-      <c r="C113" t="n">
-        <v>26.1</v>
-      </c>
       <c r="D113" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="E113" t="n">
-        <v>25.8</v>
+        <v>25.4</v>
       </c>
       <c r="F113" t="n">
-        <v>289056.6825</v>
+        <v>59958.3399</v>
       </c>
       <c r="G113" t="n">
-        <v>24.8</v>
+        <v>24.43999999999997</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C114" t="n">
         <v>26.1</v>
       </c>
-      <c r="C114" t="n">
-        <v>26.5</v>
-      </c>
       <c r="D114" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="E114" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="F114" t="n">
-        <v>221044.4107</v>
+        <v>289056.6825</v>
       </c>
       <c r="G114" t="n">
-        <v>24.9</v>
+        <v>24.46999999999997</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="C115" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="D115" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="E115" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="F115" t="n">
-        <v>263814.8861</v>
+        <v>221044.4107</v>
       </c>
       <c r="G115" t="n">
-        <v>24.99</v>
+        <v>24.51666666666664</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="C116" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="D116" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="E116" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="F116" t="n">
-        <v>48239.6047</v>
+        <v>263814.8861</v>
       </c>
       <c r="G116" t="n">
-        <v>25.075</v>
+        <v>24.55666666666664</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C117" t="n">
         <v>26.5</v>
       </c>
-      <c r="C117" t="n">
-        <v>26.9</v>
-      </c>
       <c r="D117" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="E117" t="n">
-        <v>26.5</v>
+        <v>26.1</v>
       </c>
       <c r="F117" t="n">
-        <v>324607.3447</v>
+        <v>48239.6047</v>
       </c>
       <c r="G117" t="n">
-        <v>25.18</v>
+        <v>24.59499999999997</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4496,19 +4496,19 @@
         <v>26.5</v>
       </c>
       <c r="C118" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="D118" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="E118" t="n">
         <v>26.5</v>
       </c>
       <c r="F118" t="n">
-        <v>77282.05839999999</v>
+        <v>324607.3447</v>
       </c>
       <c r="G118" t="n">
-        <v>25.285</v>
+        <v>24.64166666666664</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,28 +4528,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="C119" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="D119" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="E119" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="F119" t="n">
-        <v>68518.2142</v>
+        <v>77282.05839999999</v>
       </c>
       <c r="G119" t="n">
-        <v>25.40000000000001</v>
+        <v>24.6783333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4566,25 +4566,25 @@
         <v>26.7</v>
       </c>
       <c r="C120" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="D120" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="E120" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="F120" t="n">
-        <v>322666.5175</v>
+        <v>68518.2142</v>
       </c>
       <c r="G120" t="n">
-        <v>25.51000000000001</v>
+        <v>24.71499999999997</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4598,10 +4598,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C121" t="n">
         <v>27</v>
-      </c>
-      <c r="C121" t="n">
-        <v>26.9</v>
       </c>
       <c r="D121" t="n">
         <v>27</v>
@@ -4610,10 +4610,10 @@
         <v>26.7</v>
       </c>
       <c r="F121" t="n">
-        <v>285334.3508022222</v>
+        <v>322666.5175</v>
       </c>
       <c r="G121" t="n">
-        <v>25.63500000000001</v>
+        <v>24.75666666666664</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>27</v>
+      </c>
+      <c r="C122" t="n">
         <v>26.9</v>
-      </c>
-      <c r="C122" t="n">
-        <v>27</v>
       </c>
       <c r="D122" t="n">
         <v>27</v>
       </c>
       <c r="E122" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="F122" t="n">
-        <v>119548.9351</v>
+        <v>285334.3508022222</v>
       </c>
       <c r="G122" t="n">
-        <v>25.75500000000001</v>
+        <v>24.79666666666664</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,28 +4668,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C123" t="n">
         <v>27</v>
-      </c>
-      <c r="C123" t="n">
-        <v>26.2</v>
       </c>
       <c r="D123" t="n">
         <v>27</v>
       </c>
       <c r="E123" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="F123" t="n">
-        <v>265867.7488925926</v>
+        <v>119548.9351</v>
       </c>
       <c r="G123" t="n">
-        <v>25.87</v>
+        <v>24.83666666666664</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>27</v>
+      </c>
+      <c r="C124" t="n">
         <v>26.2</v>
       </c>
-      <c r="C124" t="n">
-        <v>25.8</v>
-      </c>
       <c r="D124" t="n">
+        <v>27</v>
+      </c>
+      <c r="E124" t="n">
         <v>26.2</v>
       </c>
-      <c r="E124" t="n">
-        <v>25.4</v>
-      </c>
       <c r="F124" t="n">
-        <v>41864.4746</v>
+        <v>265867.7488925926</v>
       </c>
       <c r="G124" t="n">
-        <v>25.945</v>
+        <v>24.86333333333331</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>25.5</v>
+        <v>26.2</v>
       </c>
       <c r="C125" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="D125" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="E125" t="n">
         <v>25.4</v>
       </c>
       <c r="F125" t="n">
-        <v>153215.7338</v>
+        <v>41864.4746</v>
       </c>
       <c r="G125" t="n">
-        <v>25.97000000000001</v>
+        <v>24.88166666666664</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="C126" t="n">
         <v>25.6</v>
       </c>
       <c r="D126" t="n">
-        <v>25.7</v>
+        <v>26.7</v>
       </c>
       <c r="E126" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="F126" t="n">
-        <v>56000</v>
+        <v>153215.7338</v>
       </c>
       <c r="G126" t="n">
-        <v>26.00500000000001</v>
+        <v>24.89833333333331</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="C127" t="n">
         <v>25.6</v>
       </c>
       <c r="D127" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="E127" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="F127" t="n">
-        <v>28724.1355</v>
+        <v>56000</v>
       </c>
       <c r="G127" t="n">
-        <v>26.04500000000001</v>
+        <v>24.91499999999997</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C128" t="n">
         <v>25.6</v>
       </c>
-      <c r="C128" t="n">
-        <v>25.7</v>
-      </c>
       <c r="D128" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="E128" t="n">
         <v>25.6</v>
       </c>
       <c r="F128" t="n">
-        <v>38831.7483</v>
+        <v>28724.1355</v>
       </c>
       <c r="G128" t="n">
-        <v>26.07</v>
+        <v>24.93166666666664</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="C129" t="n">
-        <v>26.2</v>
+        <v>25.7</v>
       </c>
       <c r="D129" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="E129" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="F129" t="n">
-        <v>85675.3895</v>
+        <v>38831.7483</v>
       </c>
       <c r="G129" t="n">
-        <v>26.11</v>
+        <v>24.94999999999998</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="C130" t="n">
         <v>26.2</v>
       </c>
       <c r="D130" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E130" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="F130" t="n">
-        <v>26785.8168</v>
+        <v>85675.3895</v>
       </c>
       <c r="G130" t="n">
-        <v>26.17</v>
+        <v>24.97833333333331</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="C131" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="D131" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="E131" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="F131" t="n">
-        <v>90932.9025</v>
+        <v>26785.8168</v>
       </c>
       <c r="G131" t="n">
-        <v>26.225</v>
+        <v>25.00999999999998</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4986,19 +4986,19 @@
         <v>26.4</v>
       </c>
       <c r="C132" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="D132" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="E132" t="n">
         <v>26.4</v>
       </c>
       <c r="F132" t="n">
-        <v>21576.7906</v>
+        <v>90932.9025</v>
       </c>
       <c r="G132" t="n">
-        <v>26.275</v>
+        <v>25.04499999999998</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,10 +5018,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C133" t="n">
         <v>26.7</v>
-      </c>
-      <c r="C133" t="n">
-        <v>26.4</v>
       </c>
       <c r="D133" t="n">
         <v>26.7</v>
@@ -5030,10 +5030,10 @@
         <v>26.4</v>
       </c>
       <c r="F133" t="n">
-        <v>34503.6286</v>
+        <v>21576.7906</v>
       </c>
       <c r="G133" t="n">
-        <v>26.32</v>
+        <v>25.08166666666665</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>25.9</v>
+        <v>26.7</v>
       </c>
       <c r="C134" t="n">
-        <v>25.9</v>
+        <v>26.4</v>
       </c>
       <c r="D134" t="n">
-        <v>25.9</v>
+        <v>26.7</v>
       </c>
       <c r="E134" t="n">
-        <v>25.9</v>
+        <v>26.4</v>
       </c>
       <c r="F134" t="n">
-        <v>40922.0468</v>
+        <v>34503.6286</v>
       </c>
       <c r="G134" t="n">
-        <v>26.31</v>
+        <v>25.14333333333332</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="C135" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="D135" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="E135" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="F135" t="n">
-        <v>11112.9136</v>
+        <v>40922.0468</v>
       </c>
       <c r="G135" t="n">
-        <v>26.29</v>
+        <v>25.16666666666665</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,10 +5123,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>26</v>
+      </c>
+      <c r="C136" t="n">
         <v>26.1</v>
-      </c>
-      <c r="C136" t="n">
-        <v>26</v>
       </c>
       <c r="D136" t="n">
         <v>26.1</v>
@@ -5135,10 +5135,10 @@
         <v>26</v>
       </c>
       <c r="F136" t="n">
-        <v>45038.2969</v>
+        <v>11112.9136</v>
       </c>
       <c r="G136" t="n">
-        <v>26.29</v>
+        <v>25.19166666666665</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,7 +5158,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="C137" t="n">
         <v>26</v>
@@ -5170,10 +5170,10 @@
         <v>26</v>
       </c>
       <c r="F137" t="n">
-        <v>224019.1201</v>
+        <v>45038.2969</v>
       </c>
       <c r="G137" t="n">
-        <v>26.265</v>
+        <v>25.22333333333332</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>24.9</v>
+        <v>26</v>
       </c>
       <c r="C138" t="n">
-        <v>24.7</v>
+        <v>26</v>
       </c>
       <c r="D138" t="n">
-        <v>24.9</v>
+        <v>26.1</v>
       </c>
       <c r="E138" t="n">
-        <v>24.7</v>
+        <v>26</v>
       </c>
       <c r="F138" t="n">
-        <v>61702.9486</v>
+        <v>224019.1201</v>
       </c>
       <c r="G138" t="n">
-        <v>26.185</v>
+        <v>25.25499999999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="C139" t="n">
-        <v>25.7</v>
+        <v>24.7</v>
       </c>
       <c r="D139" t="n">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
       <c r="E139" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="F139" t="n">
-        <v>27756.5789</v>
+        <v>61702.9486</v>
       </c>
       <c r="G139" t="n">
-        <v>26.105</v>
+        <v>25.26499999999999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="C140" t="n">
-        <v>25.1</v>
+        <v>25.7</v>
       </c>
       <c r="D140" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="E140" t="n">
         <v>25.1</v>
       </c>
       <c r="F140" t="n">
-        <v>23837.1956</v>
+        <v>27756.5789</v>
       </c>
       <c r="G140" t="n">
-        <v>26.04</v>
+        <v>25.28833333333332</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="C141" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="D141" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="E141" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="F141" t="n">
-        <v>172805.2676</v>
+        <v>23837.1956</v>
       </c>
       <c r="G141" t="n">
-        <v>25.95</v>
+        <v>25.30499999999999</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="C142" t="n">
         <v>25</v>
       </c>
       <c r="D142" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="E142" t="n">
         <v>25</v>
       </c>
-      <c r="E142" t="n">
-        <v>24.9</v>
-      </c>
       <c r="F142" t="n">
-        <v>4136.2112</v>
+        <v>172805.2676</v>
       </c>
       <c r="G142" t="n">
-        <v>25.85</v>
+        <v>25.31999999999999</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C143" t="n">
         <v>25</v>
@@ -5377,13 +5377,13 @@
         <v>25</v>
       </c>
       <c r="E143" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="F143" t="n">
-        <v>39997.863</v>
+        <v>4136.2112</v>
       </c>
       <c r="G143" t="n">
-        <v>25.75</v>
+        <v>25.34166666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="C144" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="D144" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="E144" t="n">
         <v>25</v>
       </c>
       <c r="F144" t="n">
-        <v>70159.1618</v>
+        <v>39997.863</v>
       </c>
       <c r="G144" t="n">
-        <v>25.7</v>
+        <v>25.37666666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5441,19 +5441,19 @@
         <v>25.2</v>
       </c>
       <c r="C145" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="D145" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="E145" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="F145" t="n">
-        <v>27060.0144</v>
+        <v>70159.1618</v>
       </c>
       <c r="G145" t="n">
-        <v>25.685</v>
+        <v>25.39333333333332</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="C146" t="n">
         <v>25.1</v>
       </c>
       <c r="D146" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="E146" t="n">
         <v>25.1</v>
       </c>
       <c r="F146" t="n">
-        <v>4166.6667</v>
+        <v>27060.0144</v>
       </c>
       <c r="G146" t="n">
-        <v>25.66</v>
+        <v>25.39666666666665</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5520,10 +5520,10 @@
         <v>25.1</v>
       </c>
       <c r="F147" t="n">
-        <v>19773.8917</v>
+        <v>4166.6667</v>
       </c>
       <c r="G147" t="n">
-        <v>25.62</v>
+        <v>25.40999999999999</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="C148" t="n">
-        <v>25.6</v>
+        <v>25.1</v>
       </c>
       <c r="D148" t="n">
-        <v>25.6</v>
+        <v>25.1</v>
       </c>
       <c r="E148" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="F148" t="n">
-        <v>34498.2544</v>
+        <v>19773.8917</v>
       </c>
       <c r="G148" t="n">
-        <v>25.605</v>
+        <v>25.41833333333332</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="C149" t="n">
-        <v>25</v>
+        <v>25.6</v>
       </c>
       <c r="D149" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="E149" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="F149" t="n">
-        <v>41234.9183</v>
+        <v>34498.2544</v>
       </c>
       <c r="G149" t="n">
-        <v>25.57</v>
+        <v>25.43999999999999</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="C150" t="n">
         <v>25</v>
@@ -5625,10 +5625,10 @@
         <v>25</v>
       </c>
       <c r="F150" t="n">
-        <v>25795.281</v>
+        <v>41234.9183</v>
       </c>
       <c r="G150" t="n">
-        <v>25.51000000000001</v>
+        <v>25.44499999999999</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="C151" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="D151" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="E151" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="F151" t="n">
-        <v>2000</v>
+        <v>25795.281</v>
       </c>
       <c r="G151" t="n">
-        <v>25.46000000000001</v>
+        <v>25.45166666666665</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="C152" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="D152" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="E152" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="F152" t="n">
-        <v>15587.9562</v>
+        <v>2000</v>
       </c>
       <c r="G152" t="n">
-        <v>25.39500000000001</v>
+        <v>25.47999999999999</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="C153" t="n">
         <v>25</v>
       </c>
       <c r="D153" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="E153" t="n">
         <v>25</v>
       </c>
       <c r="F153" t="n">
-        <v>10069.0463</v>
+        <v>15587.9562</v>
       </c>
       <c r="G153" t="n">
-        <v>25.31000000000001</v>
+        <v>25.49333333333332</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="C154" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="D154" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="E154" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="F154" t="n">
-        <v>3000</v>
+        <v>10069.0463</v>
       </c>
       <c r="G154" t="n">
-        <v>25.28500000000001</v>
+        <v>25.50833333333332</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5791,19 +5791,19 @@
         <v>25.4</v>
       </c>
       <c r="C155" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="D155" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="E155" t="n">
         <v>25.4</v>
       </c>
       <c r="F155" t="n">
-        <v>81360.4705</v>
+        <v>3000</v>
       </c>
       <c r="G155" t="n">
-        <v>25.25500000000001</v>
+        <v>25.51999999999999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="C156" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="D156" t="n">
-        <v>25.1</v>
+        <v>25.5</v>
       </c>
       <c r="E156" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="F156" t="n">
-        <v>68758.1664</v>
+        <v>81360.4705</v>
       </c>
       <c r="G156" t="n">
-        <v>25.20500000000001</v>
+        <v>25.53499999999999</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="C157" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="D157" t="n">
-        <v>25.5</v>
+        <v>25.1</v>
       </c>
       <c r="E157" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="F157" t="n">
-        <v>7000</v>
+        <v>68758.1664</v>
       </c>
       <c r="G157" t="n">
-        <v>25.17000000000001</v>
+        <v>25.54499999999999</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5896,19 +5896,19 @@
         <v>25.3</v>
       </c>
       <c r="C158" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="D158" t="n">
         <v>25.5</v>
       </c>
       <c r="E158" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="F158" t="n">
-        <v>23716</v>
+        <v>7000</v>
       </c>
       <c r="G158" t="n">
-        <v>25.19000000000001</v>
+        <v>25.56499999999999</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C159" t="n">
         <v>25.4</v>
-      </c>
-      <c r="C159" t="n">
-        <v>25.5</v>
       </c>
       <c r="D159" t="n">
         <v>25.5</v>
       </c>
       <c r="E159" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="F159" t="n">
-        <v>13130</v>
+        <v>23716</v>
       </c>
       <c r="G159" t="n">
-        <v>25.20500000000001</v>
+        <v>25.58166666666666</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C160" t="n">
         <v>25.5</v>
       </c>
-      <c r="C160" t="n">
-        <v>25.7</v>
-      </c>
       <c r="D160" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="E160" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="F160" t="n">
-        <v>37073.5294</v>
+        <v>13130</v>
       </c>
       <c r="G160" t="n">
-        <v>25.21000000000001</v>
+        <v>25.59999999999999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6001,19 +6001,19 @@
         <v>25.5</v>
       </c>
       <c r="C161" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="D161" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="E161" t="n">
         <v>25.5</v>
       </c>
       <c r="F161" t="n">
-        <v>17000</v>
+        <v>37073.5294</v>
       </c>
       <c r="G161" t="n">
-        <v>25.22500000000001</v>
+        <v>25.61999999999999</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6045,10 +6045,10 @@
         <v>25.5</v>
       </c>
       <c r="F162" t="n">
-        <v>20741.0826</v>
+        <v>17000</v>
       </c>
       <c r="G162" t="n">
-        <v>25.25500000000001</v>
+        <v>25.63666666666666</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="C163" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="D163" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="E163" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="F163" t="n">
-        <v>16385.2918</v>
+        <v>20741.0826</v>
       </c>
       <c r="G163" t="n">
-        <v>25.29000000000001</v>
+        <v>25.65166666666666</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6115,10 +6115,10 @@
         <v>25.7</v>
       </c>
       <c r="F164" t="n">
-        <v>70</v>
+        <v>16385.2918</v>
       </c>
       <c r="G164" t="n">
-        <v>25.31500000000002</v>
+        <v>25.66833333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,10 +6150,10 @@
         <v>25.7</v>
       </c>
       <c r="F165" t="n">
-        <v>7707</v>
+        <v>70</v>
       </c>
       <c r="G165" t="n">
-        <v>25.34000000000002</v>
+        <v>25.67999999999999</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6185,10 +6185,10 @@
         <v>25.7</v>
       </c>
       <c r="F166" t="n">
-        <v>18442.4266</v>
+        <v>7707</v>
       </c>
       <c r="G166" t="n">
-        <v>25.37000000000002</v>
+        <v>25.69166666666666</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6217,13 +6217,13 @@
         <v>25.7</v>
       </c>
       <c r="E167" t="n">
-        <v>25.2</v>
+        <v>25.7</v>
       </c>
       <c r="F167" t="n">
-        <v>44876.9235</v>
+        <v>18442.4266</v>
       </c>
       <c r="G167" t="n">
-        <v>25.40000000000002</v>
+        <v>25.70333333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6252,13 +6252,13 @@
         <v>25.7</v>
       </c>
       <c r="E168" t="n">
-        <v>25.7</v>
+        <v>25.2</v>
       </c>
       <c r="F168" t="n">
-        <v>3574.0466</v>
+        <v>44876.9235</v>
       </c>
       <c r="G168" t="n">
-        <v>25.42000000000002</v>
+        <v>25.71333333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6290,10 +6290,10 @@
         <v>25.7</v>
       </c>
       <c r="F169" t="n">
-        <v>6718.9883</v>
+        <v>3574.0466</v>
       </c>
       <c r="G169" t="n">
-        <v>25.44500000000002</v>
+        <v>25.725</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="C170" t="n">
-        <v>25.2</v>
+        <v>25.7</v>
       </c>
       <c r="D170" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="E170" t="n">
-        <v>25.2</v>
+        <v>25.7</v>
       </c>
       <c r="F170" t="n">
-        <v>7318.2346</v>
+        <v>6718.9883</v>
       </c>
       <c r="G170" t="n">
-        <v>25.47000000000002</v>
+        <v>25.735</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C171" t="n">
         <v>25.2</v>
       </c>
-      <c r="C171" t="n">
-        <v>25.1</v>
-      </c>
       <c r="D171" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E171" t="n">
         <v>25.2</v>
       </c>
-      <c r="E171" t="n">
-        <v>25.1</v>
-      </c>
       <c r="F171" t="n">
-        <v>2000</v>
+        <v>7318.2346</v>
       </c>
       <c r="G171" t="n">
-        <v>25.46000000000002</v>
+        <v>25.73666666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="C172" t="n">
         <v>25.1</v>
       </c>
       <c r="D172" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="E172" t="n">
         <v>25.1</v>
       </c>
       <c r="F172" t="n">
-        <v>36680.32</v>
+        <v>2000</v>
       </c>
       <c r="G172" t="n">
-        <v>25.46000000000002</v>
+        <v>25.73333333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="C173" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="D173" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="E173" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="F173" t="n">
-        <v>2000</v>
+        <v>36680.32</v>
       </c>
       <c r="G173" t="n">
-        <v>25.47500000000002</v>
+        <v>25.72166666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C174" t="n">
         <v>25.2</v>
       </c>
-      <c r="C174" t="n">
-        <v>25</v>
-      </c>
       <c r="D174" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E174" t="n">
         <v>25.2</v>
       </c>
-      <c r="E174" t="n">
-        <v>25</v>
-      </c>
       <c r="F174" t="n">
-        <v>48548.58</v>
+        <v>2000</v>
       </c>
       <c r="G174" t="n">
-        <v>25.46500000000002</v>
+        <v>25.70666666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C175" t="n">
         <v>25</v>
       </c>
-      <c r="C175" t="n">
-        <v>25.3</v>
-      </c>
       <c r="D175" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="E175" t="n">
         <v>25</v>
       </c>
       <c r="F175" t="n">
-        <v>88894.25999999999</v>
+        <v>48548.58</v>
       </c>
       <c r="G175" t="n">
-        <v>25.44500000000002</v>
+        <v>25.68166666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6526,19 +6526,19 @@
         <v>25</v>
       </c>
       <c r="C176" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="D176" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="E176" t="n">
         <v>25</v>
       </c>
       <c r="F176" t="n">
-        <v>230930.4795</v>
+        <v>88894.25999999999</v>
       </c>
       <c r="G176" t="n">
-        <v>25.44000000000002</v>
+        <v>25.66333333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6570,10 +6570,10 @@
         <v>25</v>
       </c>
       <c r="F177" t="n">
-        <v>4000</v>
+        <v>230930.4795</v>
       </c>
       <c r="G177" t="n">
-        <v>25.42500000000002</v>
+        <v>25.63833333333333</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="C178" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="D178" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="E178" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="F178" t="n">
-        <v>1900</v>
+        <v>4000</v>
       </c>
       <c r="G178" t="n">
-        <v>25.42500000000002</v>
+        <v>25.60666666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="C179" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="D179" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="E179" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="F179" t="n">
-        <v>199.7</v>
+        <v>1900</v>
       </c>
       <c r="G179" t="n">
-        <v>25.41000000000002</v>
+        <v>25.58666666666667</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6675,10 +6675,10 @@
         <v>25.1</v>
       </c>
       <c r="F180" t="n">
-        <v>4000</v>
+        <v>199.7</v>
       </c>
       <c r="G180" t="n">
-        <v>25.39000000000002</v>
+        <v>25.56</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="C181" t="n">
         <v>25.1</v>
       </c>
       <c r="D181" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="E181" t="n">
         <v>25.1</v>
       </c>
       <c r="F181" t="n">
-        <v>16128.72</v>
+        <v>4000</v>
       </c>
       <c r="G181" t="n">
-        <v>25.37500000000002</v>
+        <v>25.52833333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C182" t="n">
         <v>25.1</v>
       </c>
-      <c r="C182" t="n">
-        <v>25</v>
-      </c>
       <c r="D182" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="E182" t="n">
         <v>25.1</v>
       </c>
-      <c r="E182" t="n">
-        <v>25</v>
-      </c>
       <c r="F182" t="n">
-        <v>14821.9265</v>
+        <v>16128.72</v>
       </c>
       <c r="G182" t="n">
-        <v>25.35500000000003</v>
+        <v>25.49833333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="C183" t="n">
         <v>25</v>
       </c>
       <c r="D183" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="E183" t="n">
         <v>25</v>
       </c>
       <c r="F183" t="n">
-        <v>1863.16</v>
+        <v>14821.9265</v>
       </c>
       <c r="G183" t="n">
-        <v>25.32000000000003</v>
+        <v>25.46499999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6815,10 +6815,10 @@
         <v>25</v>
       </c>
       <c r="F184" t="n">
-        <v>10754.64</v>
+        <v>1863.16</v>
       </c>
       <c r="G184" t="n">
-        <v>25.28500000000003</v>
+        <v>25.44499999999999</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6850,10 +6850,10 @@
         <v>25</v>
       </c>
       <c r="F185" t="n">
-        <v>16.1336</v>
+        <v>10754.64</v>
       </c>
       <c r="G185" t="n">
-        <v>25.25000000000002</v>
+        <v>25.43166666666666</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C186" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="D186" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="E186" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="F186" t="n">
-        <v>39999.9999</v>
+        <v>16.1336</v>
       </c>
       <c r="G186" t="n">
-        <v>25.21000000000003</v>
+        <v>25.42166666666666</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="C187" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="D187" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="E187" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="F187" t="n">
-        <v>51000</v>
+        <v>39999.9999</v>
       </c>
       <c r="G187" t="n">
-        <v>25.15500000000003</v>
+        <v>25.41</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6946,19 +6946,19 @@
         <v>24.6</v>
       </c>
       <c r="C188" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="D188" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="E188" t="n">
         <v>24.6</v>
       </c>
       <c r="F188" t="n">
-        <v>12784</v>
+        <v>51000</v>
       </c>
       <c r="G188" t="n">
-        <v>25.10000000000003</v>
+        <v>25.39333333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,7 +6978,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="C189" t="n">
         <v>25.1</v>
@@ -6987,13 +6987,13 @@
         <v>25.1</v>
       </c>
       <c r="E189" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="F189" t="n">
-        <v>16283.6341</v>
+        <v>12784</v>
       </c>
       <c r="G189" t="n">
-        <v>25.07000000000003</v>
+        <v>25.38333333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7016,19 +7016,19 @@
         <v>25.1</v>
       </c>
       <c r="C190" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="D190" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="E190" t="n">
-        <v>24.6</v>
+        <v>25.1</v>
       </c>
       <c r="F190" t="n">
-        <v>4100</v>
+        <v>16283.6341</v>
       </c>
       <c r="G190" t="n">
-        <v>25.04500000000002</v>
+        <v>25.36499999999999</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="C191" t="n">
         <v>25.3</v>
@@ -7057,13 +7057,13 @@
         <v>25.3</v>
       </c>
       <c r="E191" t="n">
-        <v>25.3</v>
+        <v>24.6</v>
       </c>
       <c r="F191" t="n">
-        <v>100</v>
+        <v>4100</v>
       </c>
       <c r="G191" t="n">
-        <v>25.05000000000002</v>
+        <v>25.34999999999999</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="C192" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="D192" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="E192" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="F192" t="n">
-        <v>183.5882</v>
+        <v>100</v>
       </c>
       <c r="G192" t="n">
-        <v>25.05000000000002</v>
+        <v>25.33166666666666</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7121,19 +7121,19 @@
         <v>25.1</v>
       </c>
       <c r="C193" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="D193" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="E193" t="n">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="F193" t="n">
-        <v>20815.7955</v>
+        <v>183.5882</v>
       </c>
       <c r="G193" t="n">
-        <v>25.04000000000002</v>
+        <v>25.30499999999999</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="C194" t="n">
-        <v>24.4</v>
+        <v>25.4</v>
       </c>
       <c r="D194" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="E194" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="F194" t="n">
-        <v>18984.71</v>
+        <v>20815.7955</v>
       </c>
       <c r="G194" t="n">
-        <v>25.03000000000002</v>
+        <v>25.28833333333332</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="C195" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="D195" t="n">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="E195" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="F195" t="n">
-        <v>54529.3209</v>
+        <v>18984.71</v>
       </c>
       <c r="G195" t="n">
-        <v>25.00500000000002</v>
+        <v>25.26333333333332</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7235,10 +7235,10 @@
         <v>24.5</v>
       </c>
       <c r="F196" t="n">
-        <v>14844.0666</v>
+        <v>54529.3209</v>
       </c>
       <c r="G196" t="n">
-        <v>24.98000000000002</v>
+        <v>25.23666666666666</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7261,19 +7261,19 @@
         <v>24.5</v>
       </c>
       <c r="C197" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="D197" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="E197" t="n">
         <v>24.5</v>
       </c>
       <c r="F197" t="n">
-        <v>55491.7582</v>
+        <v>14844.0666</v>
       </c>
       <c r="G197" t="n">
-        <v>24.95500000000002</v>
+        <v>25.21166666666666</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="C198" t="n">
-        <v>24.7</v>
+        <v>25.3</v>
       </c>
       <c r="D198" t="n">
-        <v>24.7</v>
+        <v>25.3</v>
       </c>
       <c r="E198" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F198" t="n">
-        <v>1311.01</v>
+        <v>55491.7582</v>
       </c>
       <c r="G198" t="n">
-        <v>24.92500000000002</v>
+        <v>25.19999999999999</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7328,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="C199" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="D199" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="E199" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="F199" t="n">
-        <v>11956.3888</v>
+        <v>1311.01</v>
       </c>
       <c r="G199" t="n">
-        <v>24.91000000000002</v>
+        <v>25.19999999999999</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7363,10 +7363,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C200" t="n">
         <v>25.2</v>
-      </c>
-      <c r="C200" t="n">
-        <v>24.8</v>
       </c>
       <c r="D200" t="n">
         <v>25.2</v>
@@ -7375,10 +7375,10 @@
         <v>24.8</v>
       </c>
       <c r="F200" t="n">
-        <v>20950.8887</v>
+        <v>11956.3888</v>
       </c>
       <c r="G200" t="n">
-        <v>24.91500000000002</v>
+        <v>25.19166666666666</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,22 +7398,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="C201" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="D201" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="E201" t="n">
         <v>24.8</v>
       </c>
       <c r="F201" t="n">
-        <v>77211.91469999999</v>
+        <v>20950.8887</v>
       </c>
       <c r="G201" t="n">
-        <v>24.92000000000002</v>
+        <v>25.18666666666666</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7433,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="C202" t="n">
-        <v>25.4</v>
+        <v>24.9</v>
       </c>
       <c r="D202" t="n">
         <v>25.4</v>
       </c>
       <c r="E202" t="n">
-        <v>25.4</v>
+        <v>24.8</v>
       </c>
       <c r="F202" t="n">
-        <v>10</v>
+        <v>77211.91469999999</v>
       </c>
       <c r="G202" t="n">
-        <v>24.93500000000002</v>
+        <v>25.18499999999999</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7468,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="C203" t="n">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
       <c r="D203" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="E203" t="n">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
       <c r="F203" t="n">
-        <v>66004.1302</v>
+        <v>10</v>
       </c>
       <c r="G203" t="n">
-        <v>24.93500000000002</v>
+        <v>25.19166666666666</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="C204" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="D204" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="E204" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="F204" t="n">
-        <v>21955.5467</v>
+        <v>66004.1302</v>
       </c>
       <c r="G204" t="n">
-        <v>24.92500000000002</v>
+        <v>25.18999999999999</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,22 +7538,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>25.4</v>
+        <v>24.8</v>
       </c>
       <c r="C205" t="n">
         <v>24.8</v>
       </c>
       <c r="D205" t="n">
-        <v>25.4</v>
+        <v>24.8</v>
       </c>
       <c r="E205" t="n">
         <v>24.8</v>
       </c>
       <c r="F205" t="n">
-        <v>2100</v>
+        <v>21955.5467</v>
       </c>
       <c r="G205" t="n">
-        <v>24.94500000000001</v>
+        <v>25.18333333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C206" t="n">
         <v>24.8</v>
-      </c>
-      <c r="C206" t="n">
-        <v>25.4</v>
       </c>
       <c r="D206" t="n">
         <v>25.4</v>
       </c>
       <c r="E206" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="F206" t="n">
-        <v>160368.0052</v>
+        <v>2100</v>
       </c>
       <c r="G206" t="n">
-        <v>24.94000000000002</v>
+        <v>25.17833333333333</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,7 +7608,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>25.4</v>
+        <v>24.8</v>
       </c>
       <c r="C207" t="n">
         <v>25.4</v>
@@ -7617,13 +7617,13 @@
         <v>25.4</v>
       </c>
       <c r="E207" t="n">
-        <v>25.4</v>
+        <v>24.5</v>
       </c>
       <c r="F207" t="n">
-        <v>4011.299212598425</v>
+        <v>160368.0052</v>
       </c>
       <c r="G207" t="n">
-        <v>24.98000000000001</v>
+        <v>25.18333333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +7643,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
       <c r="C208" t="n">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
       <c r="D208" t="n">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
       <c r="E208" t="n">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
       <c r="F208" t="n">
-        <v>2000</v>
+        <v>4011.299212598425</v>
       </c>
       <c r="G208" t="n">
-        <v>24.99500000000001</v>
+        <v>25.18833333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,22 +7678,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C209" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="D209" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E209" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="F209" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="G209" t="n">
-        <v>24.99000000000001</v>
+        <v>25.17666666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7713,22 +7713,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C210" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="D210" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="E210" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="F210" t="n">
-        <v>210.5492</v>
+        <v>8000</v>
       </c>
       <c r="G210" t="n">
-        <v>24.98000000000001</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="C211" t="n">
-        <v>25.3</v>
+        <v>24.9</v>
       </c>
       <c r="D211" t="n">
-        <v>25.3</v>
+        <v>24.9</v>
       </c>
       <c r="E211" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="F211" t="n">
-        <v>63771.67</v>
+        <v>210.5492</v>
       </c>
       <c r="G211" t="n">
-        <v>24.97000000000001</v>
+        <v>25.16500000000001</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,22 +7783,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="C212" t="n">
-        <v>24.7</v>
+        <v>25.3</v>
       </c>
       <c r="D212" t="n">
         <v>25.3</v>
       </c>
       <c r="E212" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="F212" t="n">
-        <v>14283.7727</v>
+        <v>63771.67</v>
       </c>
       <c r="G212" t="n">
-        <v>24.96000000000001</v>
+        <v>25.16333333333334</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C213" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="D213" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="E213" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="F213" t="n">
-        <v>13531.98</v>
+        <v>14283.7727</v>
       </c>
       <c r="G213" t="n">
-        <v>24.95500000000001</v>
+        <v>25.15833333333334</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +7853,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="C214" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="D214" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="E214" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="F214" t="n">
-        <v>8000</v>
+        <v>13531.98</v>
       </c>
       <c r="G214" t="n">
-        <v>24.945</v>
+        <v>25.14833333333334</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +7888,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="C215" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="D215" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="E215" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="F215" t="n">
-        <v>80</v>
+        <v>8000</v>
       </c>
       <c r="G215" t="n">
-        <v>24.97000000000001</v>
+        <v>25.13666666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,22 +7923,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="C216" t="n">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="D216" t="n">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="E216" t="n">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="F216" t="n">
-        <v>18300.2056</v>
+        <v>80</v>
       </c>
       <c r="G216" t="n">
-        <v>24.965</v>
+        <v>25.12833333333334</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="C217" t="n">
         <v>24.4</v>
       </c>
       <c r="D217" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="E217" t="n">
         <v>24.4</v>
       </c>
       <c r="F217" t="n">
-        <v>60100</v>
+        <v>18300.2056</v>
       </c>
       <c r="G217" t="n">
-        <v>24.965</v>
+        <v>25.11833333333334</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,22 +7993,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="C218" t="n">
         <v>24.4</v>
       </c>
       <c r="D218" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="E218" t="n">
         <v>24.4</v>
       </c>
       <c r="F218" t="n">
-        <v>5941.4978</v>
+        <v>60100</v>
       </c>
       <c r="G218" t="n">
-        <v>24.95</v>
+        <v>25.10000000000001</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8031,19 +8031,19 @@
         <v>24.4</v>
       </c>
       <c r="C219" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="D219" t="n">
         <v>24.4</v>
       </c>
       <c r="E219" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="F219" t="n">
-        <v>42986.0974</v>
+        <v>5941.4978</v>
       </c>
       <c r="G219" t="n">
-        <v>24.93</v>
+        <v>25.08333333333334</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C220" t="n">
         <v>24.2</v>
       </c>
-      <c r="C220" t="n">
-        <v>24.1</v>
-      </c>
       <c r="D220" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="E220" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="F220" t="n">
-        <v>57981.8828</v>
+        <v>42986.0974</v>
       </c>
       <c r="G220" t="n">
-        <v>24.88</v>
+        <v>25.06166666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8098,22 +8098,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C221" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="D221" t="n">
         <v>24.7</v>
       </c>
-      <c r="C221" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="D221" t="n">
-        <v>24.8</v>
-      </c>
       <c r="E221" t="n">
-        <v>24.7</v>
+        <v>24.1</v>
       </c>
       <c r="F221" t="n">
-        <v>21687.4654</v>
+        <v>57981.8828</v>
       </c>
       <c r="G221" t="n">
-        <v>24.85</v>
+        <v>25.03500000000001</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8133,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="C222" t="n">
         <v>24.8</v>
       </c>
       <c r="D222" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="E222" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="F222" t="n">
-        <v>14741.65</v>
+        <v>21687.4654</v>
       </c>
       <c r="G222" t="n">
-        <v>24.82500000000001</v>
+        <v>25.02333333333334</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8171,19 +8171,19 @@
         <v>24.9</v>
       </c>
       <c r="C223" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="D223" t="n">
         <v>24.9</v>
       </c>
       <c r="E223" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="F223" t="n">
-        <v>2000</v>
+        <v>14741.65</v>
       </c>
       <c r="G223" t="n">
-        <v>24.82</v>
+        <v>25.01166666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,22 +8203,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="C224" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="D224" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="E224" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="F224" t="n">
-        <v>95583.72779999999</v>
+        <v>2000</v>
       </c>
       <c r="G224" t="n">
-        <v>24.82</v>
+        <v>24.99833333333334</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8250,10 +8250,10 @@
         <v>24.8</v>
       </c>
       <c r="F225" t="n">
-        <v>52.47</v>
+        <v>95583.72779999999</v>
       </c>
       <c r="G225" t="n">
-        <v>24.79</v>
+        <v>24.98333333333334</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8276,19 +8276,19 @@
         <v>24.8</v>
       </c>
       <c r="C226" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="D226" t="n">
         <v>24.8</v>
       </c>
       <c r="E226" t="n">
-        <v>24.1</v>
+        <v>24.8</v>
       </c>
       <c r="F226" t="n">
-        <v>135282.9349</v>
+        <v>52.47</v>
       </c>
       <c r="G226" t="n">
-        <v>24.79</v>
+        <v>24.96833333333334</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8308,22 +8308,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="C227" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="D227" t="n">
         <v>24.8</v>
       </c>
       <c r="E227" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="F227" t="n">
-        <v>21059</v>
+        <v>135282.9349</v>
       </c>
       <c r="G227" t="n">
-        <v>24.735</v>
+        <v>24.95</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="C228" t="n">
-        <v>25.6</v>
+        <v>24.7</v>
       </c>
       <c r="D228" t="n">
-        <v>25.6</v>
+        <v>24.8</v>
       </c>
       <c r="E228" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="F228" t="n">
-        <v>250506.4430972656</v>
+        <v>21059</v>
       </c>
       <c r="G228" t="n">
-        <v>24.72000000000001</v>
+        <v>24.93333333333333</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,22 +8378,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="C229" t="n">
-        <v>25</v>
+        <v>25.6</v>
       </c>
       <c r="D229" t="n">
-        <v>25</v>
+        <v>25.6</v>
       </c>
       <c r="E229" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="F229" t="n">
-        <v>90013.3027</v>
+        <v>250506.4430972656</v>
       </c>
       <c r="G229" t="n">
-        <v>24.715</v>
+        <v>24.93166666666666</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8413,10 +8413,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C230" t="n">
         <v>25</v>
-      </c>
-      <c r="C230" t="n">
-        <v>24.9</v>
       </c>
       <c r="D230" t="n">
         <v>25</v>
@@ -8425,10 +8425,10 @@
         <v>24.9</v>
       </c>
       <c r="F230" t="n">
-        <v>27261.7215</v>
+        <v>90013.3027</v>
       </c>
       <c r="G230" t="n">
-        <v>24.72000000000001</v>
+        <v>24.92</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8448,22 +8448,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C231" t="n">
         <v>24.9</v>
       </c>
       <c r="D231" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="E231" t="n">
         <v>24.9</v>
       </c>
       <c r="F231" t="n">
-        <v>417.8514</v>
+        <v>27261.7215</v>
       </c>
       <c r="G231" t="n">
-        <v>24.71</v>
+        <v>24.915</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8483,22 +8483,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>24.3</v>
+        <v>24.9</v>
       </c>
       <c r="C232" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="D232" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="E232" t="n">
-        <v>24.3</v>
+        <v>24.9</v>
       </c>
       <c r="F232" t="n">
-        <v>20743.7809</v>
+        <v>417.8514</v>
       </c>
       <c r="G232" t="n">
-        <v>24.68</v>
+        <v>24.91166666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8518,22 +8518,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="C233" t="n">
-        <v>23.4</v>
+        <v>24.7</v>
       </c>
       <c r="D233" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="E233" t="n">
-        <v>23.4</v>
+        <v>24.3</v>
       </c>
       <c r="F233" t="n">
-        <v>249880.1769</v>
+        <v>20743.7809</v>
       </c>
       <c r="G233" t="n">
-        <v>24.66</v>
+        <v>24.905</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8553,22 +8553,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="C234" t="n">
-        <v>24.9</v>
+        <v>23.4</v>
       </c>
       <c r="D234" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="E234" t="n">
-        <v>24.8</v>
+        <v>23.4</v>
       </c>
       <c r="F234" t="n">
-        <v>12000</v>
+        <v>249880.1769</v>
       </c>
       <c r="G234" t="n">
-        <v>24.66</v>
+        <v>24.875</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8588,7 +8588,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="C235" t="n">
         <v>24.9</v>
@@ -8600,10 +8600,10 @@
         <v>24.8</v>
       </c>
       <c r="F235" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="G235" t="n">
-        <v>24.655</v>
+        <v>24.87333333333334</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8632,13 +8632,13 @@
         <v>24.9</v>
       </c>
       <c r="E236" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="F236" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="G236" t="n">
-        <v>24.68</v>
+        <v>24.86666666666667</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8670,10 +8670,10 @@
         <v>24.9</v>
       </c>
       <c r="F237" t="n">
-        <v>13561.3373</v>
+        <v>2000</v>
       </c>
       <c r="G237" t="n">
-        <v>24.7</v>
+        <v>24.86500000000001</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8705,10 +8705,10 @@
         <v>24.9</v>
       </c>
       <c r="F238" t="n">
-        <v>20887.8312</v>
+        <v>13561.3373</v>
       </c>
       <c r="G238" t="n">
-        <v>24.725</v>
+        <v>24.86333333333334</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8728,22 +8728,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>25.3</v>
+        <v>24.9</v>
       </c>
       <c r="C239" t="n">
-        <v>25.3</v>
+        <v>24.9</v>
       </c>
       <c r="D239" t="n">
-        <v>25.3</v>
+        <v>24.9</v>
       </c>
       <c r="E239" t="n">
-        <v>25.3</v>
+        <v>24.9</v>
       </c>
       <c r="F239" t="n">
-        <v>10</v>
+        <v>20887.8312</v>
       </c>
       <c r="G239" t="n">
-        <v>24.77</v>
+        <v>24.85500000000001</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8763,22 +8763,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="C240" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="D240" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="E240" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="F240" t="n">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="G240" t="n">
-        <v>24.81</v>
+        <v>24.85833333333334</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8801,19 +8801,19 @@
         <v>25</v>
       </c>
       <c r="C241" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="D241" t="n">
         <v>25</v>
       </c>
       <c r="E241" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="F241" t="n">
         <v>4000</v>
       </c>
       <c r="G241" t="n">
-        <v>24.825</v>
+        <v>24.85666666666668</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8833,22 +8833,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="C242" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="D242" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="E242" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="F242" t="n">
-        <v>5862.589</v>
+        <v>4000</v>
       </c>
       <c r="G242" t="n">
-        <v>24.81</v>
+        <v>24.84666666666668</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8868,22 +8868,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="C243" t="n">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="D243" t="n">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="E243" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="F243" t="n">
-        <v>10000</v>
+        <v>5862.589</v>
       </c>
       <c r="G243" t="n">
-        <v>24.81</v>
+        <v>24.84000000000001</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C244" t="n">
         <v>25</v>
@@ -8912,13 +8912,13 @@
         <v>25</v>
       </c>
       <c r="E244" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="F244" t="n">
-        <v>3657.8963</v>
+        <v>10000</v>
       </c>
       <c r="G244" t="n">
-        <v>24.82</v>
+        <v>24.84000000000001</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8938,22 +8938,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="C245" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="D245" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="E245" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="F245" t="n">
-        <v>39719.5729</v>
+        <v>3657.8963</v>
       </c>
       <c r="G245" t="n">
-        <v>24.845</v>
+        <v>24.84000000000001</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8973,22 +8973,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="C246" t="n">
         <v>25.3</v>
       </c>
       <c r="D246" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="E246" t="n">
         <v>25.3</v>
       </c>
       <c r="F246" t="n">
-        <v>29982.8341</v>
+        <v>39719.5729</v>
       </c>
       <c r="G246" t="n">
-        <v>24.875</v>
+        <v>24.84500000000001</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9011,19 +9011,19 @@
         <v>25.4</v>
       </c>
       <c r="C247" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="D247" t="n">
         <v>25.4</v>
       </c>
       <c r="E247" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="F247" t="n">
-        <v>9842.51968503937</v>
+        <v>29982.8341</v>
       </c>
       <c r="G247" t="n">
-        <v>24.93</v>
+        <v>24.85166666666668</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9043,22 +9043,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="C248" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="D248" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="E248" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="F248" t="n">
-        <v>16352.95063897638</v>
+        <v>9842.51968503937</v>
       </c>
       <c r="G248" t="n">
-        <v>24.965</v>
+        <v>24.86500000000001</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="C249" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="D249" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="E249" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="F249" t="n">
-        <v>13950</v>
+        <v>16352.95063897638</v>
       </c>
       <c r="G249" t="n">
-        <v>24.96</v>
+        <v>24.86333333333335</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9116,19 +9116,19 @@
         <v>24.8</v>
       </c>
       <c r="C250" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="D250" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="E250" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="F250" t="n">
-        <v>10632</v>
+        <v>13950</v>
       </c>
       <c r="G250" t="n">
-        <v>24.95</v>
+        <v>24.86833333333335</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9148,22 +9148,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>25.3</v>
+        <v>24.8</v>
       </c>
       <c r="C251" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="D251" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="E251" t="n">
-        <v>25.3</v>
+        <v>24.4</v>
       </c>
       <c r="F251" t="n">
-        <v>15681.25</v>
+        <v>10632</v>
       </c>
       <c r="G251" t="n">
-        <v>24.97</v>
+        <v>24.87166666666668</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9195,10 +9195,10 @@
         <v>25.3</v>
       </c>
       <c r="F252" t="n">
-        <v>5234.5998</v>
+        <v>15681.25</v>
       </c>
       <c r="G252" t="n">
-        <v>25.02</v>
+        <v>24.87166666666668</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9218,22 +9218,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="C253" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="D253" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="E253" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="F253" t="n">
-        <v>521.532</v>
+        <v>5234.5998</v>
       </c>
       <c r="G253" t="n">
-        <v>25.02999999999999</v>
+        <v>24.87500000000002</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9253,22 +9253,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="C254" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="D254" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="E254" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="F254" t="n">
-        <v>5952.3809</v>
+        <v>521.532</v>
       </c>
       <c r="G254" t="n">
-        <v>25.05</v>
+        <v>24.86500000000002</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9288,22 +9288,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="C255" t="n">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="D255" t="n">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="E255" t="n">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="F255" t="n">
-        <v>4001.2709</v>
+        <v>5952.3809</v>
       </c>
       <c r="G255" t="n">
-        <v>25.04</v>
+        <v>24.87833333333335</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9323,22 +9323,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="C256" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="D256" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="E256" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="F256" t="n">
-        <v>535.78</v>
+        <v>4001.2709</v>
       </c>
       <c r="G256" t="n">
-        <v>25.04</v>
+        <v>24.88166666666668</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9361,19 +9361,19 @@
         <v>24.9</v>
       </c>
       <c r="C257" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="D257" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E257" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="F257" t="n">
-        <v>9787.41</v>
+        <v>535.78</v>
       </c>
       <c r="G257" t="n">
-        <v>25.04</v>
+        <v>24.88833333333335</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9393,22 +9393,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="C258" t="n">
         <v>24.7</v>
       </c>
       <c r="D258" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="E258" t="n">
         <v>24.7</v>
       </c>
       <c r="F258" t="n">
-        <v>5830.9388</v>
+        <v>9787.41</v>
       </c>
       <c r="G258" t="n">
-        <v>25.035</v>
+        <v>24.87833333333335</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9428,22 +9428,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="C259" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="D259" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="E259" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="F259" t="n">
-        <v>3977.40669047619</v>
+        <v>5830.9388</v>
       </c>
       <c r="G259" t="n">
-        <v>25.025</v>
+        <v>24.87833333333335</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="C260" t="n">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="D260" t="n">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="E260" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="F260" t="n">
-        <v>14105.5603</v>
+        <v>3977.40669047619</v>
       </c>
       <c r="G260" t="n">
-        <v>25.01</v>
+        <v>24.87833333333335</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9498,22 +9498,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="C261" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="D261" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="E261" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="F261" t="n">
-        <v>60280.9363</v>
+        <v>14105.5603</v>
       </c>
       <c r="G261" t="n">
-        <v>24.97499999999999</v>
+        <v>24.87666666666669</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9536,19 +9536,19 @@
         <v>24.3</v>
       </c>
       <c r="C262" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="D262" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="E262" t="n">
         <v>23.9</v>
       </c>
       <c r="F262" t="n">
-        <v>83236.86930000001</v>
+        <v>60280.9363</v>
       </c>
       <c r="G262" t="n">
-        <v>24.95999999999999</v>
+        <v>24.88000000000002</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9568,22 +9568,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="C263" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="D263" t="n">
         <v>24.9</v>
       </c>
       <c r="E263" t="n">
-        <v>24.3</v>
+        <v>23.9</v>
       </c>
       <c r="F263" t="n">
-        <v>9825</v>
+        <v>83236.86930000001</v>
       </c>
       <c r="G263" t="n">
-        <v>24.93499999999999</v>
+        <v>24.87166666666668</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9609,16 +9609,16 @@
         <v>24.8</v>
       </c>
       <c r="D264" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="E264" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="F264" t="n">
-        <v>23494</v>
+        <v>9825</v>
       </c>
       <c r="G264" t="n">
-        <v>24.90499999999999</v>
+        <v>24.87000000000002</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9638,22 +9638,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="C265" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="D265" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="E265" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="F265" t="n">
-        <v>4977.4067</v>
+        <v>23494</v>
       </c>
       <c r="G265" t="n">
-        <v>24.86999999999999</v>
+        <v>24.87000000000002</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9673,10 +9673,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C266" t="n">
         <v>24.3</v>
-      </c>
-      <c r="C266" t="n">
-        <v>24.5</v>
       </c>
       <c r="D266" t="n">
         <v>24.6</v>
@@ -9685,10 +9685,10 @@
         <v>24.3</v>
       </c>
       <c r="F266" t="n">
-        <v>38579.0622</v>
+        <v>4977.4067</v>
       </c>
       <c r="G266" t="n">
-        <v>24.81499999999999</v>
+        <v>24.86166666666668</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9708,7 +9708,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="C267" t="n">
         <v>24.5</v>
@@ -9717,13 +9717,13 @@
         <v>24.6</v>
       </c>
       <c r="E267" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="F267" t="n">
-        <v>20</v>
+        <v>38579.0622</v>
       </c>
       <c r="G267" t="n">
-        <v>24.775</v>
+        <v>24.84666666666668</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9743,22 +9743,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="C268" t="n">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="D268" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="E268" t="n">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="F268" t="n">
-        <v>10902.4098</v>
+        <v>20</v>
       </c>
       <c r="G268" t="n">
-        <v>24.72999999999999</v>
+        <v>24.83166666666668</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9778,22 +9778,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="C269" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="D269" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="E269" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="F269" t="n">
-        <v>51341.6049</v>
+        <v>10902.4098</v>
       </c>
       <c r="G269" t="n">
-        <v>24.70499999999999</v>
+        <v>24.81833333333334</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9813,7 +9813,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="C270" t="n">
         <v>24.3</v>
@@ -9822,13 +9822,13 @@
         <v>24.3</v>
       </c>
       <c r="E270" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="F270" t="n">
-        <v>3099</v>
+        <v>51341.6049</v>
       </c>
       <c r="G270" t="n">
-        <v>24.67499999999999</v>
+        <v>24.81666666666667</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9851,19 +9851,19 @@
         <v>24.2</v>
       </c>
       <c r="C271" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="D271" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="E271" t="n">
         <v>24.2</v>
       </c>
       <c r="F271" t="n">
-        <v>47867.6927</v>
+        <v>3099</v>
       </c>
       <c r="G271" t="n">
-        <v>24.61999999999999</v>
+        <v>24.80666666666667</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>24.2</v>
       </c>
       <c r="E272" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="F272" t="n">
-        <v>138721</v>
+        <v>47867.6927</v>
       </c>
       <c r="G272" t="n">
-        <v>24.56499999999999</v>
+        <v>24.78833333333334</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9918,7 +9918,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="C273" t="n">
         <v>24.2</v>
@@ -9930,10 +9930,10 @@
         <v>24.1</v>
       </c>
       <c r="F273" t="n">
-        <v>13944</v>
+        <v>138721</v>
       </c>
       <c r="G273" t="n">
-        <v>24.52999999999999</v>
+        <v>24.78000000000001</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9953,22 +9953,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="C274" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="D274" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="E274" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="F274" t="n">
-        <v>32719.2812</v>
+        <v>13944</v>
       </c>
       <c r="G274" t="n">
-        <v>24.46999999999998</v>
+        <v>24.77666666666667</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -9997,13 +9997,13 @@
         <v>24</v>
       </c>
       <c r="E275" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="F275" t="n">
-        <v>258044.9618</v>
+        <v>32719.2812</v>
       </c>
       <c r="G275" t="n">
-        <v>24.43499999999998</v>
+        <v>24.765</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10023,22 +10023,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="C276" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="D276" t="n">
+        <v>24</v>
+      </c>
+      <c r="E276" t="n">
         <v>23.6</v>
       </c>
-      <c r="E276" t="n">
-        <v>23.5</v>
-      </c>
       <c r="F276" t="n">
-        <v>192268.34</v>
+        <v>258044.9618</v>
       </c>
       <c r="G276" t="n">
-        <v>24.36499999999998</v>
+        <v>24.74833333333334</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10064,16 +10064,16 @@
         <v>23.5</v>
       </c>
       <c r="D277" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="E277" t="n">
         <v>23.5</v>
       </c>
       <c r="F277" t="n">
-        <v>7587.9562</v>
+        <v>192268.34</v>
       </c>
       <c r="G277" t="n">
-        <v>24.29499999999998</v>
+        <v>24.73333333333334</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10093,22 +10093,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="C278" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="D278" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="E278" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="F278" t="n">
-        <v>15743.8333</v>
+        <v>7587.9562</v>
       </c>
       <c r="G278" t="n">
-        <v>24.23999999999998</v>
+        <v>24.71833333333334</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10128,22 +10128,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="C279" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="D279" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="E279" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="F279" t="n">
-        <v>76331.35799999999</v>
+        <v>15743.8333</v>
       </c>
       <c r="G279" t="n">
-        <v>24.19499999999998</v>
+        <v>24.70666666666667</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10163,22 +10163,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="C280" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="D280" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="E280" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="F280" t="n">
-        <v>19700</v>
+        <v>76331.35799999999</v>
       </c>
       <c r="G280" t="n">
-        <v>24.15499999999998</v>
+        <v>24.7</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10198,22 +10198,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="C281" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="D281" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="E281" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="F281" t="n">
-        <v>52193.03</v>
+        <v>19700</v>
       </c>
       <c r="G281" t="n">
-        <v>24.14499999999998</v>
+        <v>24.69666666666667</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10236,19 +10236,19 @@
         <v>24.1</v>
       </c>
       <c r="C282" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="D282" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="E282" t="n">
         <v>24</v>
       </c>
       <c r="F282" t="n">
-        <v>34000</v>
+        <v>52193.03</v>
       </c>
       <c r="G282" t="n">
-        <v>24.13499999999998</v>
+        <v>24.685</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10268,10 +10268,10 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C283" t="n">
         <v>24</v>
-      </c>
-      <c r="C283" t="n">
-        <v>24.2</v>
       </c>
       <c r="D283" t="n">
         <v>24.2</v>
@@ -10280,10 +10280,10 @@
         <v>24</v>
       </c>
       <c r="F283" t="n">
-        <v>45784</v>
+        <v>34000</v>
       </c>
       <c r="G283" t="n">
-        <v>24.11499999999998</v>
+        <v>24.67166666666667</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10303,10 +10303,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="C284" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="D284" t="n">
         <v>24.2</v>
@@ -10315,10 +10315,10 @@
         <v>24</v>
       </c>
       <c r="F284" t="n">
-        <v>20049</v>
+        <v>45784</v>
       </c>
       <c r="G284" t="n">
-        <v>24.09999999999998</v>
+        <v>24.66</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10338,22 +10338,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="C285" t="n">
         <v>24.1</v>
       </c>
       <c r="D285" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="E285" t="n">
         <v>24</v>
       </c>
       <c r="F285" t="n">
-        <v>9456</v>
+        <v>20049</v>
       </c>
       <c r="G285" t="n">
-        <v>24.06999999999998</v>
+        <v>24.64833333333333</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10373,7 +10373,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="C286" t="n">
         <v>24.1</v>
@@ -10382,13 +10382,13 @@
         <v>24.1</v>
       </c>
       <c r="E286" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="F286" t="n">
-        <v>10672</v>
+        <v>9456</v>
       </c>
       <c r="G286" t="n">
-        <v>24.03999999999998</v>
+        <v>24.63666666666667</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10408,22 +10408,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="C287" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="D287" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="E287" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="F287" t="n">
-        <v>7780</v>
+        <v>10672</v>
       </c>
       <c r="G287" t="n">
-        <v>24.00999999999998</v>
+        <v>24.62833333333333</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10446,19 +10446,19 @@
         <v>24</v>
       </c>
       <c r="C288" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="D288" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="E288" t="n">
         <v>24</v>
       </c>
       <c r="F288" t="n">
-        <v>7261</v>
+        <v>7780</v>
       </c>
       <c r="G288" t="n">
-        <v>23.98999999999998</v>
+        <v>24.62</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10478,7 +10478,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="C289" t="n">
         <v>24</v>
@@ -10487,13 +10487,13 @@
         <v>24</v>
       </c>
       <c r="E289" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="F289" t="n">
-        <v>124</v>
+        <v>7261</v>
       </c>
       <c r="G289" t="n">
-        <v>23.96999999999998</v>
+        <v>24.59333333333334</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10513,22 +10513,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="C290" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="D290" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="E290" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="F290" t="n">
-        <v>8200</v>
+        <v>124</v>
       </c>
       <c r="G290" t="n">
-        <v>23.94999999999998</v>
+        <v>24.57666666666667</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10548,22 +10548,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="C291" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="D291" t="n">
-        <v>24.5</v>
+        <v>23.8</v>
       </c>
       <c r="E291" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="F291" t="n">
-        <v>199181</v>
+        <v>8200</v>
       </c>
       <c r="G291" t="n">
-        <v>23.93999999999998</v>
+        <v>24.55833333333333</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10589,16 +10589,16 @@
         <v>23.9</v>
       </c>
       <c r="D292" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="E292" t="n">
         <v>23.9</v>
       </c>
       <c r="F292" t="n">
-        <v>18103.5414</v>
+        <v>199181</v>
       </c>
       <c r="G292" t="n">
-        <v>23.92999999999998</v>
+        <v>24.54166666666667</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10618,22 +10618,22 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="C293" t="n">
         <v>23.9</v>
       </c>
       <c r="D293" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="E293" t="n">
         <v>23.9</v>
       </c>
       <c r="F293" t="n">
-        <v>6240.918</v>
+        <v>18103.5414</v>
       </c>
       <c r="G293" t="n">
-        <v>23.91999999999998</v>
+        <v>24.52833333333333</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>23.9</v>
       </c>
       <c r="F294" t="n">
-        <v>498.66</v>
+        <v>6240.918</v>
       </c>
       <c r="G294" t="n">
-        <v>23.91499999999998</v>
+        <v>24.53666666666667</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10700,10 +10700,10 @@
         <v>23.9</v>
       </c>
       <c r="F295" t="n">
-        <v>1000.7493</v>
+        <v>498.66</v>
       </c>
       <c r="G295" t="n">
-        <v>23.90999999999998</v>
+        <v>24.52</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10723,22 +10723,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="C296" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="D296" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="E296" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="F296" t="n">
-        <v>28810.3639</v>
+        <v>1000.7493</v>
       </c>
       <c r="G296" t="n">
-        <v>23.91999999999998</v>
+        <v>24.50333333333333</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10761,19 +10761,19 @@
         <v>23.7</v>
       </c>
       <c r="C297" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="D297" t="n">
         <v>23.7</v>
       </c>
       <c r="E297" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="F297" t="n">
-        <v>1000</v>
+        <v>28810.3639</v>
       </c>
       <c r="G297" t="n">
-        <v>23.92999999999997</v>
+        <v>24.48166666666667</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10793,22 +10793,22 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="C298" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="D298" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="E298" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="F298" t="n">
-        <v>29232.8716</v>
+        <v>1000</v>
       </c>
       <c r="G298" t="n">
-        <v>23.92499999999998</v>
+        <v>24.46166666666666</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -10828,22 +10828,22 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C299" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="D299" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="E299" t="n">
         <v>23.2</v>
       </c>
       <c r="F299" t="n">
-        <v>80221.6538</v>
+        <v>29232.8716</v>
       </c>
       <c r="G299" t="n">
-        <v>23.88999999999998</v>
+        <v>24.43333333333333</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -10863,22 +10863,22 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="C300" t="n">
         <v>23.8</v>
       </c>
       <c r="D300" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="E300" t="n">
         <v>23.2</v>
       </c>
       <c r="F300" t="n">
-        <v>414041.0294</v>
+        <v>80221.6538</v>
       </c>
       <c r="G300" t="n">
-        <v>23.86499999999998</v>
+        <v>24.40833333333333</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="C301" t="n">
         <v>23.8</v>
       </c>
       <c r="D301" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="E301" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F301" t="n">
-        <v>6000</v>
+        <v>414041.0294</v>
       </c>
       <c r="G301" t="n">
-        <v>23.82499999999998</v>
+        <v>24.38833333333333</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -10933,22 +10933,22 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="C302" t="n">
-        <v>22.5</v>
+        <v>23.8</v>
       </c>
       <c r="D302" t="n">
-        <v>23.1</v>
+        <v>23.8</v>
       </c>
       <c r="E302" t="n">
-        <v>22.5</v>
+        <v>23.3</v>
       </c>
       <c r="F302" t="n">
-        <v>191489.6646</v>
+        <v>6000</v>
       </c>
       <c r="G302" t="n">
-        <v>23.77499999999998</v>
+        <v>24.37666666666666</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -10968,22 +10968,22 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>23.6</v>
+        <v>23.1</v>
       </c>
       <c r="C303" t="n">
-        <v>23.4</v>
+        <v>22.5</v>
       </c>
       <c r="D303" t="n">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="E303" t="n">
-        <v>23.4</v>
+        <v>22.5</v>
       </c>
       <c r="F303" t="n">
-        <v>27142.4059</v>
+        <v>191489.6646</v>
       </c>
       <c r="G303" t="n">
-        <v>23.75499999999998</v>
+        <v>24.34166666666666</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11003,22 +11003,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C304" t="n">
         <v>23.4</v>
       </c>
-      <c r="C304" t="n">
-        <v>23.5</v>
-      </c>
       <c r="D304" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="E304" t="n">
         <v>23.4</v>
       </c>
       <c r="F304" t="n">
-        <v>76225</v>
+        <v>27142.4059</v>
       </c>
       <c r="G304" t="n">
-        <v>23.71999999999998</v>
+        <v>24.315</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11038,22 +11038,22 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="C305" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="D305" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="E305" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="F305" t="n">
-        <v>14000</v>
+        <v>76225</v>
       </c>
       <c r="G305" t="n">
-        <v>23.68499999999998</v>
+        <v>24.29</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11073,22 +11073,22 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="C306" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="D306" t="n">
-        <v>23</v>
+        <v>23.6</v>
       </c>
       <c r="E306" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="F306" t="n">
-        <v>6705.4986</v>
+        <v>14000</v>
       </c>
       <c r="G306" t="n">
-        <v>23.64999999999998</v>
+        <v>24.25666666666666</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11120,10 +11120,10 @@
         <v>23</v>
       </c>
       <c r="F307" t="n">
-        <v>22718.5569</v>
+        <v>6705.4986</v>
       </c>
       <c r="G307" t="n">
-        <v>23.59999999999998</v>
+        <v>24.21833333333333</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11149,16 +11149,16 @@
         <v>23</v>
       </c>
       <c r="D308" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="E308" t="n">
         <v>23</v>
       </c>
       <c r="F308" t="n">
-        <v>17841</v>
+        <v>22718.5569</v>
       </c>
       <c r="G308" t="n">
-        <v>23.54999999999998</v>
+        <v>24.17833333333333</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11181,19 +11181,19 @@
         <v>23</v>
       </c>
       <c r="C309" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="D309" t="n">
         <v>23.3</v>
       </c>
       <c r="E309" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="F309" t="n">
-        <v>113816.79</v>
+        <v>17841</v>
       </c>
       <c r="G309" t="n">
-        <v>23.50499999999998</v>
+        <v>24.145</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11213,22 +11213,22 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="C310" t="n">
         <v>22.8</v>
       </c>
       <c r="D310" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E310" t="n">
         <v>22.8</v>
       </c>
-      <c r="E310" t="n">
-        <v>22.7</v>
-      </c>
       <c r="F310" t="n">
-        <v>23172</v>
+        <v>113816.79</v>
       </c>
       <c r="G310" t="n">
-        <v>23.44999999999998</v>
+        <v>24.10166666666666</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11248,22 +11248,22 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="C311" t="n">
         <v>22.8</v>
       </c>
       <c r="D311" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="E311" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="F311" t="n">
-        <v>4500</v>
+        <v>23172</v>
       </c>
       <c r="G311" t="n">
-        <v>23.39499999999997</v>
+        <v>24.05666666666666</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11283,10 +11283,10 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C312" t="n">
         <v>22.8</v>
-      </c>
-      <c r="C312" t="n">
-        <v>22.9</v>
       </c>
       <c r="D312" t="n">
         <v>22.9</v>
@@ -11295,10 +11295,10 @@
         <v>22.8</v>
       </c>
       <c r="F312" t="n">
-        <v>2100</v>
+        <v>4500</v>
       </c>
       <c r="G312" t="n">
-        <v>23.33499999999998</v>
+        <v>24.01499999999999</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11318,22 +11318,22 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="C313" t="n">
-        <v>22.5</v>
+        <v>22.9</v>
       </c>
       <c r="D313" t="n">
-        <v>22.5</v>
+        <v>22.9</v>
       </c>
       <c r="E313" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="F313" t="n">
-        <v>8478.5738</v>
+        <v>2100</v>
       </c>
       <c r="G313" t="n">
-        <v>23.26499999999998</v>
+        <v>23.975</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11353,22 +11353,22 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="C314" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="D314" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="E314" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="F314" t="n">
-        <v>27800</v>
+        <v>8478.5738</v>
       </c>
       <c r="G314" t="n">
-        <v>23.18999999999998</v>
+        <v>23.93666666666666</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11388,35 +11388,31 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="C315" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="D315" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="E315" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="F315" t="n">
-        <v>3896.6821</v>
+        <v>27800</v>
       </c>
       <c r="G315" t="n">
-        <v>23.11999999999998</v>
+        <v>23.89</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K315" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
@@ -11427,22 +11423,22 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="C316" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="D316" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="E316" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="F316" t="n">
-        <v>22000</v>
+        <v>3896.6821</v>
       </c>
       <c r="G316" t="n">
-        <v>23.06999999999998</v>
+        <v>23.85333333333333</v>
       </c>
       <c r="H316" t="n">
         <v>1</v>
@@ -11451,16 +11447,12 @@
         <v>0</v>
       </c>
       <c r="J316" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="K316" t="n">
         <v>22.4</v>
       </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11470,32 +11462,30 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="C317" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="D317" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="E317" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="F317" t="n">
-        <v>32388.6725</v>
+        <v>22000</v>
       </c>
       <c r="G317" t="n">
-        <v>23.01499999999998</v>
+        <v>23.81666666666666</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
         <v>22.4</v>
       </c>
@@ -11513,22 +11503,22 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="C318" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="D318" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="E318" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="F318" t="n">
-        <v>26243.8711</v>
+        <v>32388.6725</v>
       </c>
       <c r="G318" t="n">
-        <v>22.95999999999998</v>
+        <v>23.78166666666666</v>
       </c>
       <c r="H318" t="n">
         <v>1</v>
@@ -11537,182 +11527,162 @@
         <v>0</v>
       </c>
       <c r="J318" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="K318" t="n">
         <v>22.4</v>
       </c>
       <c r="L318" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C319" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D319" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E319" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F319" t="n">
+        <v>26243.8711</v>
+      </c>
+      <c r="G319" t="n">
+        <v>23.74333333333333</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
+      <c r="M319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C320" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D320" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="E320" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F320" t="n">
+        <v>20059.5833</v>
+      </c>
+      <c r="G320" t="n">
+        <v>23.69666666666666</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
+      <c r="M320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C321" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D321" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E321" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F321" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G321" t="n">
+        <v>23.665</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
+      <c r="M321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C322" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D322" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E322" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F322" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G322" t="n">
+        <v>23.62333333333333</v>
+      </c>
+      <c r="H322" t="n">
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0</v>
+      </c>
+      <c r="J322" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="C319" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="D319" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="E319" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="F319" t="n">
-        <v>20059.5833</v>
-      </c>
-      <c r="G319" t="n">
-        <v>22.90499999999998</v>
-      </c>
-      <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
-      <c r="J319" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K319" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="C320" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D320" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E320" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F320" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G320" t="n">
-        <v>22.87499999999998</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="C321" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="D321" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="E321" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F321" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G321" t="n">
-        <v>22.83499999999998</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="C322" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D322" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E322" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F322" t="n">
-        <v>107857.4549</v>
-      </c>
-      <c r="G322" t="n">
-        <v>22.81999999999998</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11731,24 +11701,24 @@
         <v>22.8</v>
       </c>
       <c r="E323" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="F323" t="n">
-        <v>61171.5562</v>
+        <v>107857.4549</v>
       </c>
       <c r="G323" t="n">
-        <v>22.77999999999998</v>
+        <v>23.58833333333332</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="J323" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11763,33 +11733,33 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="C324" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="D324" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="E324" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="F324" t="n">
-        <v>3031</v>
+        <v>61171.5562</v>
       </c>
       <c r="G324" t="n">
-        <v>22.75499999999998</v>
+        <v>23.55499999999999</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="J324" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11807,30 +11777,30 @@
         <v>22.9</v>
       </c>
       <c r="C325" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="D325" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="E325" t="n">
         <v>22.9</v>
       </c>
       <c r="F325" t="n">
-        <v>20481</v>
+        <v>3031</v>
       </c>
       <c r="G325" t="n">
-        <v>22.73499999999998</v>
+        <v>23.52333333333333</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="J325" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11848,30 +11818,30 @@
         <v>22.9</v>
       </c>
       <c r="C326" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="D326" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="E326" t="n">
         <v>22.9</v>
       </c>
       <c r="F326" t="n">
-        <v>6432.066</v>
+        <v>20481</v>
       </c>
       <c r="G326" t="n">
-        <v>22.72999999999998</v>
+        <v>23.505</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="J326" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11889,30 +11859,30 @@
         <v>22.9</v>
       </c>
       <c r="C327" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="D327" t="n">
         <v>22.9</v>
       </c>
       <c r="E327" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="F327" t="n">
-        <v>38513.4571</v>
+        <v>6432.066</v>
       </c>
       <c r="G327" t="n">
-        <v>22.72499999999997</v>
+        <v>23.47833333333333</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="J327" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11927,33 +11897,33 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="C328" t="n">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
       <c r="D328" t="n">
-        <v>23.3</v>
+        <v>22.9</v>
       </c>
       <c r="E328" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="F328" t="n">
-        <v>70393.746</v>
+        <v>38513.4571</v>
       </c>
       <c r="G328" t="n">
-        <v>22.72999999999998</v>
+        <v>23.45</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="J328" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11968,22 +11938,22 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="C329" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="D329" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="E329" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="F329" t="n">
-        <v>20041.25</v>
+        <v>70393.746</v>
       </c>
       <c r="G329" t="n">
-        <v>22.74999999999998</v>
+        <v>23.43666666666666</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -11992,9 +11962,7 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12009,22 +11977,22 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="C330" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="D330" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="E330" t="n">
         <v>23.2</v>
       </c>
       <c r="F330" t="n">
-        <v>1881.8224</v>
+        <v>20041.25</v>
       </c>
       <c r="G330" t="n">
-        <v>22.77499999999997</v>
+        <v>23.42166666666667</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -12033,9 +12001,7 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12050,22 +12016,22 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="C331" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="D331" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="E331" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="F331" t="n">
-        <v>30205.3484</v>
+        <v>1881.8224</v>
       </c>
       <c r="G331" t="n">
-        <v>22.77999999999998</v>
+        <v>23.40333333333333</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -12074,9 +12040,7 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12091,22 +12055,22 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="C332" t="n">
-        <v>23.8</v>
+        <v>23</v>
       </c>
       <c r="D332" t="n">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="E332" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="F332" t="n">
-        <v>10000</v>
+        <v>30205.3484</v>
       </c>
       <c r="G332" t="n">
-        <v>22.82499999999997</v>
+        <v>23.38333333333333</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -12115,9 +12079,7 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12132,22 +12094,22 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="C333" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="D333" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="E333" t="n">
         <v>23.7</v>
       </c>
-      <c r="D333" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="E333" t="n">
-        <v>23.6</v>
-      </c>
       <c r="F333" t="n">
-        <v>27611</v>
+        <v>10000</v>
       </c>
       <c r="G333" t="n">
-        <v>22.87999999999997</v>
+        <v>23.37666666666667</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -12156,9 +12118,7 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12173,22 +12133,22 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C334" t="n">
         <v>23.7</v>
       </c>
-      <c r="C334" t="n">
-        <v>23.8</v>
-      </c>
       <c r="D334" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="E334" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="F334" t="n">
-        <v>108161</v>
+        <v>27611</v>
       </c>
       <c r="G334" t="n">
-        <v>22.94499999999998</v>
+        <v>23.36833333333333</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -12197,9 +12157,7 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12214,7 +12172,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="C335" t="n">
         <v>23.8</v>
@@ -12223,13 +12181,13 @@
         <v>23.8</v>
       </c>
       <c r="E335" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="F335" t="n">
-        <v>11000</v>
+        <v>108161</v>
       </c>
       <c r="G335" t="n">
-        <v>23.00999999999998</v>
+        <v>23.365</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -12238,9 +12196,7 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12258,19 +12214,19 @@
         <v>23.8</v>
       </c>
       <c r="C336" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="D336" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="E336" t="n">
         <v>23.8</v>
       </c>
       <c r="F336" t="n">
-        <v>38141.9881</v>
+        <v>11000</v>
       </c>
       <c r="G336" t="n">
-        <v>23.06499999999998</v>
+        <v>23.36166666666666</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -12279,9 +12235,7 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12296,22 +12250,22 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C337" t="n">
         <v>23.9</v>
       </c>
-      <c r="C337" t="n">
-        <v>24</v>
-      </c>
       <c r="D337" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="E337" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="F337" t="n">
-        <v>26734.0269</v>
+        <v>38141.9881</v>
       </c>
       <c r="G337" t="n">
-        <v>23.12999999999997</v>
+        <v>23.36833333333333</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -12320,9 +12274,7 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12337,22 +12289,22 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="C338" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="D338" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="E338" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="F338" t="n">
-        <v>8000</v>
+        <v>26734.0269</v>
       </c>
       <c r="G338" t="n">
-        <v>23.17999999999997</v>
+        <v>23.37666666666667</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -12361,9 +12313,7 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12378,22 +12328,22 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="C339" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="D339" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="E339" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="F339" t="n">
-        <v>22951.284</v>
+        <v>8000</v>
       </c>
       <c r="G339" t="n">
-        <v>23.22999999999998</v>
+        <v>23.37333333333333</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -12402,9 +12352,7 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12419,22 +12367,22 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>22.9</v>
+        <v>23.4</v>
       </c>
       <c r="C340" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D340" t="n">
         <v>23.4</v>
       </c>
-      <c r="D340" t="n">
-        <v>23.9</v>
-      </c>
       <c r="E340" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="F340" t="n">
-        <v>10743.0089</v>
+        <v>22951.284</v>
       </c>
       <c r="G340" t="n">
-        <v>23.23499999999997</v>
+        <v>23.365</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -12443,9 +12391,7 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12460,22 +12406,22 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="C341" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="D341" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="E341" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="F341" t="n">
-        <v>4000</v>
+        <v>10743.0089</v>
       </c>
       <c r="G341" t="n">
-        <v>23.26999999999997</v>
+        <v>23.35666666666667</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -12484,9 +12430,7 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12501,22 +12445,22 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="C342" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="D342" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="E342" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="F342" t="n">
-        <v>47840.4077</v>
+        <v>4000</v>
       </c>
       <c r="G342" t="n">
-        <v>23.27999999999997</v>
+        <v>23.34333333333333</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -12525,9 +12469,7 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12542,22 +12484,22 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
+        <v>23</v>
+      </c>
+      <c r="C343" t="n">
         <v>23.1</v>
       </c>
-      <c r="C343" t="n">
-        <v>23.8</v>
-      </c>
       <c r="D343" t="n">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="E343" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="F343" t="n">
-        <v>10000</v>
+        <v>47840.4077</v>
       </c>
       <c r="G343" t="n">
-        <v>23.29499999999997</v>
+        <v>23.32833333333333</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -12566,9 +12508,7 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12583,22 +12523,22 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="C344" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="D344" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="E344" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="F344" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G344" t="n">
-        <v>23.30999999999997</v>
+        <v>23.32166666666666</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -12607,9 +12547,7 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12639,7 +12577,7 @@
         <v>10</v>
       </c>
       <c r="G345" t="n">
-        <v>23.32499999999997</v>
+        <v>23.30666666666666</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -12648,9 +12586,7 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12677,10 +12613,10 @@
         <v>23.2</v>
       </c>
       <c r="F346" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G346" t="n">
-        <v>23.33999999999997</v>
+        <v>23.29166666666667</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -12689,9 +12625,7 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12718,10 +12652,10 @@
         <v>23.2</v>
       </c>
       <c r="F347" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G347" t="n">
-        <v>23.35499999999998</v>
+        <v>23.27666666666667</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -12730,9 +12664,7 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12742,6 +12674,45 @@
         <v>1</v>
       </c>
     </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C348" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D348" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E348" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="F348" t="n">
+        <v>10</v>
+      </c>
+      <c r="G348" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0</v>
+      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M348" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-30 BackTest OGO.xlsx
+++ b/BackTest/2019-10-30 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -520,8 +524,14 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>25</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +560,19 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>25</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -1936,10 +1954,14 @@
         <v>1876577.988780332</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>24</v>
+      </c>
+      <c r="J47" t="n">
+        <v>24</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
@@ -1969,11 +1991,19 @@
         <v>1876577.988780332</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>24</v>
+      </c>
+      <c r="J48" t="n">
+        <v>24</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2032,19 @@
         <v>1876577.988780332</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>24</v>
+      </c>
+      <c r="J49" t="n">
+        <v>24</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2134,10 +2172,14 @@
         <v>1876577.988780332</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>24</v>
+      </c>
+      <c r="J53" t="n">
+        <v>24</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2167,11 +2209,19 @@
         <v>1867427.356180332</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>24</v>
+      </c>
+      <c r="J54" t="n">
+        <v>24</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2250,19 @@
         <v>1954023.732880332</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="J55" t="n">
+        <v>24</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2291,19 @@
         <v>1954023.732880332</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>24</v>
+      </c>
+      <c r="J56" t="n">
+        <v>24</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2332,19 @@
         <v>1954023.732880332</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>24</v>
+      </c>
+      <c r="J57" t="n">
+        <v>24</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2373,19 @@
         <v>1954023.732880332</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>24</v>
+      </c>
+      <c r="J58" t="n">
+        <v>24</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2414,19 @@
         <v>1954023.732880332</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>24</v>
+      </c>
+      <c r="J59" t="n">
+        <v>24</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2455,19 @@
         <v>1954023.732880332</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>24</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2496,19 @@
         <v>1966443.732880332</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>24</v>
+      </c>
+      <c r="J61" t="n">
+        <v>24</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2537,19 @@
         <v>1966443.732880332</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J62" t="n">
+        <v>24</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2581,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>24</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2620,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>24</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2659,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>24</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2698,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>24</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2737,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>24</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2776,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>24</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2815,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>24</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2854,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>24</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2893,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>24</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +2932,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>24</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +2971,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>24</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3010,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>24</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3049,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>24</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3088,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>24</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3127,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>24</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3166,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>24</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3205,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>24</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3241,19 @@
         <v>1948807.761580332</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>24</v>
+      </c>
+      <c r="J80" t="n">
+        <v>24</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3282,19 @@
         <v>1911528.761580332</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>24</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3323,19 @@
         <v>1911528.761580332</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>24</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3364,19 @@
         <v>1911528.761580332</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>24</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3405,19 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J84" t="n">
+        <v>24</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3446,19 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>24</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3487,19 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J86" t="n">
+        <v>24</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3528,19 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J87" t="n">
+        <v>24</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3569,19 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J88" t="n">
+        <v>24</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,15 +3610,17 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>24.4</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>24</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -3361,10 +3651,14 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J90" t="n">
+        <v>24</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3398,12 +3692,14 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>24.5</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>24</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3437,12 +3733,14 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>24.5</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>24</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3476,12 +3774,14 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>24.5</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>24</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3515,12 +3815,14 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>24.5</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>24</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3554,12 +3856,14 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>24.5</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>24</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3593,12 +3897,14 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>24.5</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>24</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3632,12 +3938,14 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>24.5</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>24</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3671,12 +3979,14 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>24.6</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>24</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3710,10 +4020,14 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J99" t="n">
+        <v>24</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3747,10 +4061,14 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J100" t="n">
+        <v>24</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3784,10 +4102,14 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>24</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3821,10 +4143,14 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J102" t="n">
+        <v>24</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3858,10 +4184,14 @@
         <v>1987320.810680332</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J103" t="n">
+        <v>24</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3895,10 +4225,14 @@
         <v>1929871.266580332</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>24</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3932,10 +4266,14 @@
         <v>1929871.266580332</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>24</v>
+      </c>
+      <c r="J105" t="n">
+        <v>24</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3969,10 +4307,14 @@
         <v>1995603.419080332</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>24</v>
+      </c>
+      <c r="J106" t="n">
+        <v>24</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4006,12 +4348,14 @@
         <v>1977032.795580332</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>24.4</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>24</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4045,12 +4389,14 @@
         <v>2006900.835480332</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>23.9</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>24</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4084,12 +4430,14 @@
         <v>2006900.835480332</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>24</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>24</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4123,10 +4471,14 @@
         <v>2006900.835480332</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>24</v>
+      </c>
+      <c r="J110" t="n">
+        <v>24</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4160,10 +4512,14 @@
         <v>1952760.200280332</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>24</v>
+      </c>
+      <c r="J111" t="n">
+        <v>24</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4197,10 +4553,14 @@
         <v>2023989.200280332</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J112" t="n">
+        <v>24</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4234,10 +4594,14 @@
         <v>2005845.882480332</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J113" t="n">
+        <v>24</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4271,10 +4635,14 @@
         <v>2009902.882480332</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="J114" t="n">
+        <v>24</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4308,10 +4676,14 @@
         <v>2013918.882480332</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>24</v>
+      </c>
+      <c r="J115" t="n">
+        <v>24</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4345,10 +4717,14 @@
         <v>2003835.555880332</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="J116" t="n">
+        <v>24</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4382,10 +4758,14 @@
         <v>2113298.563780332</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>24</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4422,7 +4802,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>24</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4459,7 +4841,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>24</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4496,7 +4880,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>24</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4533,7 +4919,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>24</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4570,7 +4958,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>24</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4607,7 +4997,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>24</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4644,7 +5036,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>24</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4681,7 +5075,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>24</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4718,7 +5114,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>24</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4755,7 +5153,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>24</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4792,7 +5192,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>24</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4829,7 +5231,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>24</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4866,7 +5270,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>24</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4903,7 +5309,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>24</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4940,7 +5348,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>24</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4977,7 +5387,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>24</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5014,7 +5426,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>24</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5051,7 +5465,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>24</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5088,7 +5504,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>24</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5125,7 +5543,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>24</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5162,7 +5582,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>24</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5199,7 +5621,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>24</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5236,7 +5660,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>24</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5273,7 +5699,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>24</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5310,7 +5738,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>24</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5347,7 +5777,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>24</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5384,7 +5816,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>24</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5421,7 +5855,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>24</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5458,7 +5894,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>24</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5495,7 +5933,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>24</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5532,7 +5972,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>24</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5569,7 +6011,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>24</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5606,7 +6050,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>24</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5643,7 +6089,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>24</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5680,7 +6128,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>24</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5717,7 +6167,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>24</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5754,7 +6206,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>24</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5791,7 +6245,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>24</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5828,7 +6284,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>24</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5865,7 +6323,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>24</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5902,7 +6362,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>24</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5939,7 +6401,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>24</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5976,7 +6440,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>24</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6013,7 +6479,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>24</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6050,7 +6518,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>24</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6087,7 +6557,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>24</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6124,7 +6596,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>24</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6161,7 +6635,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>24</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6198,7 +6674,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>24</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6235,7 +6713,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>24</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6272,7 +6752,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>24</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6309,7 +6791,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>24</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6346,7 +6830,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>24</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6383,7 +6869,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>24</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6420,7 +6908,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>24</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6457,7 +6947,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>24</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6491,413 +6983,491 @@
         <v>3007256.410006335</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>24</v>
+      </c>
       <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D175" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E175" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>48239.6047</v>
+      </c>
+      <c r="G175" t="n">
+        <v>3055496.014706335</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>24</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C176" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D176" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E176" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F176" t="n">
+        <v>324607.3447</v>
+      </c>
+      <c r="G176" t="n">
+        <v>3380103.359406335</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>24</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C177" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D177" t="n">
+        <v>27</v>
+      </c>
+      <c r="E177" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F177" t="n">
+        <v>77282.05839999999</v>
+      </c>
+      <c r="G177" t="n">
+        <v>3302821.301006335</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>24</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C178" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D178" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F178" t="n">
+        <v>68518.2142</v>
+      </c>
+      <c r="G178" t="n">
+        <v>3371339.515206335</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>24</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C179" t="n">
+        <v>27</v>
+      </c>
+      <c r="D179" t="n">
+        <v>27</v>
+      </c>
+      <c r="E179" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F179" t="n">
+        <v>322666.5175</v>
+      </c>
+      <c r="G179" t="n">
+        <v>3694006.032706335</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>24</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>27</v>
+      </c>
+      <c r="C180" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D180" t="n">
+        <v>27</v>
+      </c>
+      <c r="E180" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F180" t="n">
+        <v>285334.3508022222</v>
+      </c>
+      <c r="G180" t="n">
+        <v>3408671.681904113</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>24</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C181" t="n">
+        <v>27</v>
+      </c>
+      <c r="D181" t="n">
+        <v>27</v>
+      </c>
+      <c r="E181" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F181" t="n">
+        <v>119548.9351</v>
+      </c>
+      <c r="G181" t="n">
+        <v>3528220.617004113</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>24</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>27</v>
+      </c>
+      <c r="C182" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D182" t="n">
+        <v>27</v>
+      </c>
+      <c r="E182" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F182" t="n">
+        <v>265867.7488925926</v>
+      </c>
+      <c r="G182" t="n">
+        <v>3262352.86811152</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>24</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C183" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D183" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E183" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F183" t="n">
+        <v>41864.4746</v>
+      </c>
+      <c r="G183" t="n">
+        <v>3220488.39351152</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>24</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C184" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D184" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E184" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F184" t="n">
+        <v>153215.7338</v>
+      </c>
+      <c r="G184" t="n">
+        <v>3067272.65971152</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>24</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C185" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D185" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E185" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F185" t="n">
+        <v>56000</v>
+      </c>
+      <c r="G185" t="n">
+        <v>3067272.65971152</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>24</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C186" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D186" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E186" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F186" t="n">
+        <v>28724.1355</v>
+      </c>
+      <c r="G186" t="n">
+        <v>3067272.65971152</v>
+      </c>
+      <c r="H186" t="n">
+        <v>2</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>24</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C175" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D175" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="E175" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F175" t="n">
-        <v>48239.6047</v>
-      </c>
-      <c r="G175" t="n">
-        <v>3055496.014706335</v>
-      </c>
-      <c r="H175" t="n">
-        <v>3</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="C176" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D176" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E176" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F176" t="n">
-        <v>324607.3447</v>
-      </c>
-      <c r="G176" t="n">
-        <v>3380103.359406335</v>
-      </c>
-      <c r="H176" t="n">
-        <v>3</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="C177" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D177" t="n">
-        <v>27</v>
-      </c>
-      <c r="E177" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F177" t="n">
-        <v>77282.05839999999</v>
-      </c>
-      <c r="G177" t="n">
-        <v>3302821.301006335</v>
-      </c>
-      <c r="H177" t="n">
-        <v>3</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C178" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D178" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E178" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F178" t="n">
-        <v>68518.2142</v>
-      </c>
-      <c r="G178" t="n">
-        <v>3371339.515206335</v>
-      </c>
-      <c r="H178" t="n">
-        <v>3</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C179" t="n">
-        <v>27</v>
-      </c>
-      <c r="D179" t="n">
-        <v>27</v>
-      </c>
-      <c r="E179" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F179" t="n">
-        <v>322666.5175</v>
-      </c>
-      <c r="G179" t="n">
-        <v>3694006.032706335</v>
-      </c>
-      <c r="H179" t="n">
-        <v>3</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>27</v>
-      </c>
-      <c r="C180" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D180" t="n">
-        <v>27</v>
-      </c>
-      <c r="E180" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F180" t="n">
-        <v>285334.3508022222</v>
-      </c>
-      <c r="G180" t="n">
-        <v>3408671.681904113</v>
-      </c>
-      <c r="H180" t="n">
-        <v>3</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C181" t="n">
-        <v>27</v>
-      </c>
-      <c r="D181" t="n">
-        <v>27</v>
-      </c>
-      <c r="E181" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F181" t="n">
-        <v>119548.9351</v>
-      </c>
-      <c r="G181" t="n">
-        <v>3528220.617004113</v>
-      </c>
-      <c r="H181" t="n">
-        <v>3</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>27</v>
-      </c>
-      <c r="C182" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D182" t="n">
-        <v>27</v>
-      </c>
-      <c r="E182" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F182" t="n">
-        <v>265867.7488925926</v>
-      </c>
-      <c r="G182" t="n">
-        <v>3262352.86811152</v>
-      </c>
-      <c r="H182" t="n">
-        <v>3</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C183" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D183" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E183" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="F183" t="n">
-        <v>41864.4746</v>
-      </c>
-      <c r="G183" t="n">
-        <v>3220488.39351152</v>
-      </c>
-      <c r="H183" t="n">
-        <v>3</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="C184" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D184" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E184" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="F184" t="n">
-        <v>153215.7338</v>
-      </c>
-      <c r="G184" t="n">
-        <v>3067272.65971152</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C185" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D185" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="E185" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F185" t="n">
-        <v>56000</v>
-      </c>
-      <c r="G185" t="n">
-        <v>3067272.65971152</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C186" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D186" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E186" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F186" t="n">
-        <v>28724.1355</v>
-      </c>
-      <c r="G186" t="n">
-        <v>3067272.65971152</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>1.061666666666667</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1.059071729957806</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6955,7 +7525,7 @@
         <v>3191779.79751152</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6988,7 +7558,7 @@
         <v>3191779.79751152</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7021,7 +7591,7 @@
         <v>3282712.70001152</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7054,7 +7624,7 @@
         <v>3304289.49061152</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7087,7 +7657,7 @@
         <v>3269785.86201152</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7120,7 +7690,7 @@
         <v>3228863.81521152</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7153,7 +7723,7 @@
         <v>3239976.72881152</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7186,7 +7756,7 @@
         <v>3194938.43191152</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7219,7 +7789,7 @@
         <v>3194938.43191152</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7252,7 +7822,7 @@
         <v>3133235.48331152</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7285,7 +7855,7 @@
         <v>3160992.06221152</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7318,7 +7888,7 @@
         <v>3137154.86661152</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7351,7 +7921,7 @@
         <v>2964349.59901152</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7384,7 +7954,7 @@
         <v>2964349.59901152</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7417,7 +7987,7 @@
         <v>2964349.59901152</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7450,7 +8020,7 @@
         <v>3034508.76081152</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7483,7 +8053,7 @@
         <v>3007448.74641152</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7516,7 +8086,7 @@
         <v>3007448.74641152</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7549,7 +8119,7 @@
         <v>3007448.74641152</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7582,7 +8152,7 @@
         <v>3041947.00081152</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7648,7 +8218,7 @@
         <v>3000712.08251152</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7681,7 +8251,7 @@
         <v>3002712.08251152</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7813,7 +8383,7 @@
         <v>3071484.596811519</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7879,7 +8449,7 @@
         <v>3009726.430411519</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7912,7 +8482,7 @@
         <v>2986010.430411519</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7945,7 +8515,7 @@
         <v>2999140.430411519</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7978,7 +8548,7 @@
         <v>3036213.959811519</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8044,7 +8614,7 @@
         <v>3019213.959811519</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8308,7 +8878,7 @@
         <v>3028281.017011519</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8341,7 +8911,7 @@
         <v>3026281.017011519</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8374,7 +8944,7 @@
         <v>3026281.017011519</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8407,7 +8977,7 @@
         <v>3028281.017011519</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8440,7 +9010,7 @@
         <v>2979732.437011519</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8506,7 +9076,7 @@
         <v>2837696.217511519</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8539,7 +9109,7 @@
         <v>2837696.217511519</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8572,7 +9142,7 @@
         <v>2839596.217511519</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8605,7 +9175,7 @@
         <v>2839396.517511519</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8638,7 +9208,7 @@
         <v>2839396.517511519</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8671,7 +9241,7 @@
         <v>2839396.517511519</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8704,7 +9274,7 @@
         <v>2824574.591011519</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8737,7 +9307,7 @@
         <v>2824574.591011519</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9100,7 +9670,7 @@
         <v>2752106.088411518</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9133,7 +9703,7 @@
         <v>2806635.409311519</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9166,7 +9736,7 @@
         <v>2806635.409311519</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9199,7 +9769,7 @@
         <v>2862127.167511519</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9232,7 +9802,7 @@
         <v>2860816.157511519</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9265,7 +9835,7 @@
         <v>2872772.546311519</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9364,7 +9934,7 @@
         <v>2929043.572311519</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9430,7 +10000,7 @@
         <v>2841083.895411519</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9463,7 +10033,7 @@
         <v>2841083.895411519</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9496,7 +10066,7 @@
         <v>3001451.900611519</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -13225,14 +13795,10 @@
         <v>2486176.981145323</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
-      </c>
-      <c r="I378" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="J378" t="n">
-        <v>22.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
@@ -13265,14 +13831,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13301,19 +13861,11 @@
         <v>2484176.981145323</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
-      </c>
-      <c r="I380" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J380" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13342,14 +13894,10 @@
         <v>2592034.436045323</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
-      </c>
-      <c r="I381" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J381" t="n">
-        <v>22.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
@@ -13379,19 +13927,11 @@
         <v>2592034.436045323</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
-      </c>
-      <c r="I382" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J382" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13420,19 +13960,11 @@
         <v>2595065.436045323</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
-      </c>
-      <c r="I383" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J383" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13461,19 +13993,11 @@
         <v>2615546.436045323</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="J384" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13502,19 +14026,11 @@
         <v>2609114.370045323</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="J385" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13543,19 +14059,11 @@
         <v>2570600.912945323</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="J386" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13587,14 +14095,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13623,19 +14125,11 @@
         <v>2661035.908945323</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="J388" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13667,14 +14161,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13706,14 +14194,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13745,14 +14227,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13784,14 +14260,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13823,14 +14293,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13862,14 +14326,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13901,14 +14359,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13940,14 +14392,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13979,14 +14425,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14018,14 +14458,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14057,14 +14491,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14096,14 +14524,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14135,14 +14557,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14174,14 +14590,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14213,14 +14623,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14252,14 +14656,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14291,14 +14689,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14330,14 +14722,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14369,14 +14755,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14408,14 +14788,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14447,14 +14821,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14483,19 +14851,11 @@
         <v>2732226.070345323</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
-      </c>
-      <c r="I410" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="J410" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14527,14 +14887,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14566,14 +14920,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14605,14 +14953,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14644,14 +14986,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14683,14 +15019,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14722,20 +15052,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
       <c r="M416" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest OGO.xlsx
+++ b/BackTest/2019-10-30 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,17 +517,11 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>25</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -560,19 +550,11 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>25</v>
-      </c>
-      <c r="J5" t="n">
-        <v>25</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,7 +583,7 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -634,7 +616,7 @@
         <v>1833200.430980332</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -832,7 +814,7 @@
         <v>1853195.674680332</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1888,10 +1870,14 @@
         <v>1876577.988780332</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>24</v>
+      </c>
+      <c r="J45" t="n">
+        <v>24</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -1921,11 +1907,19 @@
         <v>1876577.988780332</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>24</v>
+      </c>
+      <c r="J46" t="n">
+        <v>24</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1962,7 +1956,11 @@
       <c r="J47" t="n">
         <v>24</v>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1999,11 +1997,7 @@
       <c r="J48" t="n">
         <v>24</v>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2073,11 +2067,19 @@
         <v>1876577.988780332</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>24</v>
+      </c>
+      <c r="J50" t="n">
+        <v>24</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2106,10 +2108,14 @@
         <v>1876577.988780332</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>24</v>
+      </c>
+      <c r="J51" t="n">
+        <v>24</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2139,11 +2145,19 @@
         <v>1876577.988780332</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>24</v>
+      </c>
+      <c r="J52" t="n">
+        <v>24</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2180,7 +2194,11 @@
       <c r="J53" t="n">
         <v>24</v>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -3241,11 +3259,9 @@
         <v>1948807.761580332</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>24</v>
       </c>
@@ -3282,11 +3298,9 @@
         <v>1911528.761580332</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>24</v>
       </c>
@@ -3323,11 +3337,9 @@
         <v>1911528.761580332</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>24</v>
       </c>
@@ -3364,11 +3376,9 @@
         <v>1911528.761580332</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>24</v>
       </c>
@@ -3405,11 +3415,9 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>24</v>
       </c>
@@ -3446,11 +3454,9 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>24</v>
       </c>
@@ -3487,11 +3493,9 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>24</v>
       </c>
@@ -3528,11 +3532,9 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>24</v>
       </c>
@@ -3569,11 +3571,9 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>24</v>
       </c>
@@ -3610,11 +3610,9 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>24</v>
       </c>
@@ -3651,11 +3649,9 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>24</v>
       </c>
@@ -3692,11 +3688,9 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>24</v>
       </c>
@@ -3733,11 +3727,9 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>24</v>
       </c>
@@ -3774,11 +3766,9 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>24</v>
       </c>
@@ -3815,11 +3805,9 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>24</v>
       </c>
@@ -3856,11 +3844,9 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>24</v>
       </c>
@@ -3897,11 +3883,9 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>24</v>
       </c>
@@ -3938,11 +3922,9 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>24</v>
       </c>
@@ -3979,11 +3961,9 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>24</v>
       </c>
@@ -4020,11 +4000,9 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>24</v>
       </c>
@@ -4061,11 +4039,9 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
         <v>24</v>
       </c>
@@ -4102,11 +4078,9 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>24</v>
       </c>
@@ -4143,11 +4117,9 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>24</v>
       </c>
@@ -4184,11 +4156,9 @@
         <v>1987320.810680332</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
         <v>24</v>
       </c>
@@ -4225,11 +4195,9 @@
         <v>1929871.266580332</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>24.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>24</v>
       </c>
@@ -4266,11 +4234,9 @@
         <v>1929871.266580332</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
         <v>24</v>
       </c>
@@ -4307,11 +4273,9 @@
         <v>1995603.419080332</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
         <v>24</v>
       </c>
@@ -4348,11 +4312,9 @@
         <v>1977032.795580332</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
         <v>24</v>
       </c>
@@ -4389,11 +4351,9 @@
         <v>2006900.835480332</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>23.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
         <v>24</v>
       </c>
@@ -4430,11 +4390,9 @@
         <v>2006900.835480332</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
         <v>24</v>
       </c>
@@ -4471,11 +4429,9 @@
         <v>2006900.835480332</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
         <v>24</v>
       </c>
@@ -4512,11 +4468,9 @@
         <v>1952760.200280332</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
         <v>24</v>
       </c>
@@ -4594,11 +4548,9 @@
         <v>2005845.882480332</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
         <v>24</v>
       </c>
@@ -4635,11 +4587,9 @@
         <v>2009902.882480332</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>23.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
         <v>24</v>
       </c>
@@ -4676,11 +4626,9 @@
         <v>2013918.882480332</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
         <v>24</v>
       </c>
@@ -4717,11 +4665,9 @@
         <v>2003835.555880332</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
         <v>24</v>
       </c>
@@ -4758,11 +4704,9 @@
         <v>2113298.563780332</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>24.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
         <v>24</v>
       </c>
@@ -7451,7 +7395,7 @@
         <v>3067272.65971152</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
@@ -7459,15 +7403,13 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L186" t="n">
-        <v>1.061666666666667</v>
-      </c>
-      <c r="M186" t="n">
-        <v>1.059071729957806</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7495,8 +7437,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>24</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7525,11 +7473,17 @@
         <v>3191779.79751152</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>24</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7558,11 +7512,17 @@
         <v>3191779.79751152</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>24</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7591,11 +7551,17 @@
         <v>3282712.70001152</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>24</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7624,11 +7590,17 @@
         <v>3304289.49061152</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>24</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7657,11 +7629,17 @@
         <v>3269785.86201152</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>24</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7690,11 +7668,17 @@
         <v>3228863.81521152</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>24</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7723,11 +7707,17 @@
         <v>3239976.72881152</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>24</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7756,11 +7746,17 @@
         <v>3194938.43191152</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>24</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7789,11 +7785,17 @@
         <v>3194938.43191152</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>24</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7822,11 +7824,17 @@
         <v>3133235.48331152</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>24</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7855,11 +7863,17 @@
         <v>3160992.06221152</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>24</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7888,11 +7902,17 @@
         <v>3137154.86661152</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>24</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7921,11 +7941,17 @@
         <v>2964349.59901152</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>24</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7954,11 +7980,17 @@
         <v>2964349.59901152</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>24</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7987,11 +8019,17 @@
         <v>2964349.59901152</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>24</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8020,11 +8058,17 @@
         <v>3034508.76081152</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>24</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8053,11 +8097,17 @@
         <v>3007448.74641152</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>24</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8089,8 +8139,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>24</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8122,8 +8178,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>24</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8155,8 +8217,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>24</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8188,8 +8256,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>24</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8221,8 +8295,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>24</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8254,8 +8334,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>24</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8287,8 +8373,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>24</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8320,8 +8412,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>24</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8353,8 +8451,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>24</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8383,11 +8487,17 @@
         <v>3071484.596811519</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>24</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8419,8 +8529,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>24</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8449,11 +8565,17 @@
         <v>3009726.430411519</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>24</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8482,11 +8604,17 @@
         <v>2986010.430411519</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>24</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8515,11 +8643,17 @@
         <v>2999140.430411519</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>24</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8548,11 +8682,17 @@
         <v>3036213.959811519</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>24</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8584,8 +8724,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>24</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8614,11 +8760,17 @@
         <v>3019213.959811519</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>24</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8650,8 +8802,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>24</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8683,8 +8841,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>24</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8716,8 +8880,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>24</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8749,8 +8919,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>24</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8782,8 +8958,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>24</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8815,8 +8997,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>24</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8848,8 +9036,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>24</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8878,11 +9072,17 @@
         <v>3028281.017011519</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>24</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8911,11 +9111,17 @@
         <v>3026281.017011519</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>24</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8944,11 +9150,17 @@
         <v>3026281.017011519</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>24</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8977,11 +9189,17 @@
         <v>3028281.017011519</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>24</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9010,11 +9228,17 @@
         <v>2979732.437011519</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>24</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9046,8 +9270,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>24</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9076,11 +9306,17 @@
         <v>2837696.217511519</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>24</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9109,11 +9345,17 @@
         <v>2837696.217511519</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>24</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9142,11 +9384,17 @@
         <v>2839596.217511519</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>24</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9175,11 +9423,17 @@
         <v>2839396.517511519</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>24</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9208,11 +9462,17 @@
         <v>2839396.517511519</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>24</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9241,11 +9501,17 @@
         <v>2839396.517511519</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>24</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9274,11 +9540,17 @@
         <v>2824574.591011519</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>24</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9307,11 +9579,17 @@
         <v>2824574.591011519</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>24</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9343,8 +9621,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>24</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9376,8 +9660,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>24</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9409,8 +9699,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>24</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9442,8 +9738,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>24</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9475,8 +9777,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>24</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9508,8 +9816,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>24</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9541,8 +9855,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>24</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9574,8 +9894,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>24</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9607,8 +9933,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>24</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9640,8 +9972,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>24</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9670,11 +10008,17 @@
         <v>2752106.088411518</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>24</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9703,11 +10047,17 @@
         <v>2806635.409311519</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>24</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9736,11 +10086,17 @@
         <v>2806635.409311519</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>24</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9769,11 +10125,17 @@
         <v>2862127.167511519</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>24</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9802,11 +10164,17 @@
         <v>2860816.157511519</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>24</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9835,11 +10203,17 @@
         <v>2872772.546311519</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>24</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9871,8 +10245,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>24</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9904,8 +10284,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>24</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9934,11 +10320,17 @@
         <v>2929043.572311519</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>24</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9970,8 +10362,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>24</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10000,11 +10398,17 @@
         <v>2841083.895411519</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>24</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10033,11 +10437,17 @@
         <v>2841083.895411519</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>24</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10066,11 +10476,17 @@
         <v>3001451.900611519</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>24</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10102,8 +10518,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>24</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10135,8 +10557,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>24</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10168,8 +10596,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>24</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10201,8 +10635,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>24</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10234,8 +10674,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>24</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10267,8 +10713,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>24</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10300,8 +10752,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>24</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10333,8 +10791,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>24</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10366,8 +10830,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>24</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10399,8 +10869,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>24</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10432,8 +10908,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>24</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10465,8 +10947,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>24</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10498,8 +10986,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>24</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10531,8 +11025,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>24</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10564,8 +11064,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>24</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10597,8 +11103,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>24</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10630,8 +11142,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>24</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10663,8 +11181,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>24</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10696,8 +11220,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>24</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10729,8 +11259,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>24</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10762,8 +11298,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>24</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10795,8 +11337,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>24</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10828,8 +11376,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>24</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10861,8 +11415,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>24</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10894,8 +11454,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>24</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10927,8 +11493,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>24</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10960,8 +11532,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>24</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10993,8 +11571,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>24</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11026,8 +11610,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>24</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11059,8 +11649,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>24</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11092,8 +11688,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>24</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11125,8 +11727,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>24</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11158,8 +11766,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>24</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11191,8 +11805,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>24</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11224,8 +11844,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>24</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11257,8 +11883,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>24</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11290,8 +11922,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>24</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11323,8 +11961,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>24</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11356,8 +12000,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>24</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11389,8 +12039,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>24</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11422,8 +12078,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>24</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11455,8 +12117,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>24</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11488,8 +12156,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>24</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11521,8 +12195,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>24</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11554,8 +12234,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>24</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11587,8 +12273,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>24</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11620,8 +12312,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>24</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11653,8 +12351,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>24</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11686,8 +12390,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>24</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11719,8 +12429,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>24</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11752,8 +12468,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>24</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11785,8 +12507,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>24</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11818,8 +12546,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>24</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11851,8 +12585,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>24</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11884,8 +12624,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>24</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11917,8 +12663,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>24</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11950,8 +12702,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>24</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11983,8 +12741,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>24</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12016,8 +12780,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>24</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12049,8 +12819,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>24</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12082,8 +12858,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>24</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12115,8 +12897,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>24</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12148,8 +12936,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>24</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12181,8 +12975,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>24</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12214,8 +13014,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>24</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12247,8 +13053,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>24</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12280,8 +13092,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>24</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12313,8 +13131,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>24</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12346,8 +13170,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>24</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12379,8 +13209,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>24</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12412,8 +13248,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>24</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12445,8 +13287,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>24</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12478,8 +13326,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>24</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12511,8 +13365,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>24</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12544,8 +13404,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>24</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12577,8 +13443,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>24</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12610,8 +13482,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>24</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12643,8 +13521,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>24</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12676,8 +13560,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>24</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12709,8 +13599,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>24</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12742,8 +13638,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>24</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12775,8 +13677,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>24</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12808,8 +13716,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>24</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12841,8 +13755,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>24</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12874,8 +13794,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>24</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12907,8 +13833,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>24</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12940,8 +13872,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>24</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12973,8 +13911,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>24</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13006,8 +13950,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>24</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13039,8 +13989,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>24</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13072,8 +14028,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>24</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13105,8 +14067,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>24</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13138,8 +14106,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>24</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13171,8 +14145,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>24</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13204,8 +14184,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>24</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13237,8 +14223,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>24</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13270,8 +14262,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>24</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13303,8 +14301,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>24</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13336,8 +14340,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>24</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13369,8 +14379,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>24</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13402,8 +14418,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>24</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13435,8 +14457,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>24</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13468,8 +14496,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>24</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13501,8 +14535,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>24</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13534,8 +14574,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>24</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13567,8 +14613,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>24</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13600,8 +14652,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>24</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13633,8 +14691,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>24</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13666,8 +14730,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>24</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13699,8 +14769,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>24</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13732,8 +14808,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>24</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13765,8 +14847,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>24</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13798,8 +14886,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>24</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13831,8 +14925,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>24</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13864,8 +14964,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>24</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13897,8 +15003,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>24</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13930,8 +15042,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>24</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13963,8 +15081,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>24</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13996,8 +15120,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>24</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14029,8 +15159,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>24</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14062,8 +15198,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>24</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14095,8 +15237,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>24</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14128,8 +15276,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>24</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14161,8 +15315,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>24</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14194,8 +15354,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>24</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14227,8 +15393,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>24</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14260,8 +15432,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>24</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14293,8 +15471,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>24</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14326,8 +15510,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>24</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14359,8 +15549,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>24</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14392,8 +15588,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>24</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14425,8 +15627,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>24</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14458,8 +15666,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>24</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14491,8 +15705,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>24</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14524,8 +15744,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>24</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14557,8 +15783,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>24</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14590,8 +15822,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>24</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14623,8 +15861,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>24</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14656,8 +15900,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>24</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14689,8 +15939,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>24</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14722,8 +15978,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>24</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14755,8 +16017,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>24</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14788,8 +16056,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>24</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14821,8 +16095,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>24</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14854,8 +16134,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>24</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14887,8 +16173,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>24</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14920,8 +16212,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>24</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14953,8 +16251,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>24</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14986,8 +16290,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>24</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15019,8 +16329,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>24</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15052,14 +16368,20 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>24</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
       <c r="M416" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest OGO.xlsx
+++ b/BackTest/2019-10-30 BackTest OGO.xlsx
@@ -451,7 +451,7 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1833200.430980332</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1853195.674680332</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1837,10 +1837,14 @@
         <v>1876577.988780332</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>24</v>
+      </c>
+      <c r="J44" t="n">
+        <v>24</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
@@ -1878,7 +1882,11 @@
       <c r="J45" t="n">
         <v>24</v>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1956,48 +1964,48 @@
       <c r="J47" t="n">
         <v>24</v>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>24</v>
+      </c>
+      <c r="C48" t="n">
+        <v>24</v>
+      </c>
+      <c r="D48" t="n">
+        <v>24</v>
+      </c>
+      <c r="E48" t="n">
+        <v>24</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1876577.988780332</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>24</v>
+      </c>
+      <c r="J48" t="n">
+        <v>24</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>24</v>
-      </c>
-      <c r="C48" t="n">
-        <v>24</v>
-      </c>
-      <c r="D48" t="n">
-        <v>24</v>
-      </c>
-      <c r="E48" t="n">
-        <v>24</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1876577.988780332</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>24</v>
-      </c>
-      <c r="J48" t="n">
-        <v>24</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2075,48 +2083,48 @@
       <c r="J50" t="n">
         <v>24</v>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>24</v>
+      </c>
+      <c r="C51" t="n">
+        <v>24</v>
+      </c>
+      <c r="D51" t="n">
+        <v>24</v>
+      </c>
+      <c r="E51" t="n">
+        <v>24</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1876577.988780332</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>24</v>
+      </c>
+      <c r="J51" t="n">
+        <v>24</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>24</v>
-      </c>
-      <c r="C51" t="n">
-        <v>24</v>
-      </c>
-      <c r="D51" t="n">
-        <v>24</v>
-      </c>
-      <c r="E51" t="n">
-        <v>24</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1876577.988780332</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>24</v>
-      </c>
-      <c r="J51" t="n">
-        <v>24</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2194,11 +2202,7 @@
       <c r="J53" t="n">
         <v>24</v>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2596,9 +2600,11 @@
         <v>1966443.732880332</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J63" t="n">
         <v>24</v>
       </c>
@@ -2635,9 +2641,11 @@
         <v>1966443.732880332</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J64" t="n">
         <v>24</v>
       </c>
@@ -2674,9 +2682,11 @@
         <v>1988012.732880332</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J65" t="n">
         <v>24</v>
       </c>
@@ -2713,9 +2723,11 @@
         <v>1988012.732880332</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J66" t="n">
         <v>24</v>
       </c>
@@ -2752,9 +2764,11 @@
         <v>1988012.732880332</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J67" t="n">
         <v>24</v>
       </c>
@@ -2791,9 +2805,11 @@
         <v>1979434.232880332</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J68" t="n">
         <v>24</v>
       </c>
@@ -2830,9 +2846,11 @@
         <v>1985399.232880332</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>24.1</v>
+      </c>
       <c r="J69" t="n">
         <v>24</v>
       </c>
@@ -2869,9 +2887,11 @@
         <v>1985399.232880332</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J70" t="n">
         <v>24</v>
       </c>
@@ -2908,9 +2928,11 @@
         <v>1985399.232880332</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J71" t="n">
         <v>24</v>
       </c>
@@ -2947,9 +2969,11 @@
         <v>1984898.232880332</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J72" t="n">
         <v>24</v>
       </c>
@@ -2986,9 +3010,11 @@
         <v>1984898.232880332</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J73" t="n">
         <v>24</v>
       </c>
@@ -3025,9 +3051,11 @@
         <v>1996098.232880332</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J74" t="n">
         <v>24</v>
       </c>
@@ -3064,9 +3092,11 @@
         <v>1950106.972980332</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J75" t="n">
         <v>24</v>
       </c>
@@ -3103,9 +3133,11 @@
         <v>1986251.972980332</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J76" t="n">
         <v>24</v>
       </c>
@@ -3142,9 +3174,11 @@
         <v>1986251.972980332</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J77" t="n">
         <v>24</v>
       </c>
@@ -3181,9 +3215,11 @@
         <v>1986251.972980332</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J78" t="n">
         <v>24</v>
       </c>
@@ -3220,9 +3256,11 @@
         <v>1939471.761580332</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J79" t="n">
         <v>24</v>
       </c>
@@ -3259,9 +3297,11 @@
         <v>1948807.761580332</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>24</v>
+      </c>
       <c r="J80" t="n">
         <v>24</v>
       </c>
@@ -3298,9 +3338,11 @@
         <v>1911528.761580332</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J81" t="n">
         <v>24</v>
       </c>
@@ -3337,9 +3379,11 @@
         <v>1911528.761580332</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J82" t="n">
         <v>24</v>
       </c>
@@ -3376,9 +3420,11 @@
         <v>1911528.761580332</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J83" t="n">
         <v>24</v>
       </c>
@@ -3415,9 +3461,11 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J84" t="n">
         <v>24</v>
       </c>
@@ -3454,9 +3502,11 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J85" t="n">
         <v>24</v>
       </c>
@@ -3493,9 +3543,11 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J86" t="n">
         <v>24</v>
       </c>
@@ -3532,9 +3584,11 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J87" t="n">
         <v>24</v>
       </c>
@@ -3571,9 +3625,11 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J88" t="n">
         <v>24</v>
       </c>
@@ -3610,9 +3666,11 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J89" t="n">
         <v>24</v>
       </c>
@@ -3649,9 +3707,11 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J90" t="n">
         <v>24</v>
       </c>
@@ -3688,9 +3748,11 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J91" t="n">
         <v>24</v>
       </c>
@@ -3727,9 +3789,11 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J92" t="n">
         <v>24</v>
       </c>
@@ -3766,9 +3830,11 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J93" t="n">
         <v>24</v>
       </c>
@@ -3805,9 +3871,11 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J94" t="n">
         <v>24</v>
       </c>
@@ -3844,9 +3912,11 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J95" t="n">
         <v>24</v>
       </c>
@@ -3883,9 +3953,11 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J96" t="n">
         <v>24</v>
       </c>
@@ -3922,9 +3994,11 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J97" t="n">
         <v>24</v>
       </c>
@@ -3961,9 +4035,11 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J98" t="n">
         <v>24</v>
       </c>
@@ -4000,9 +4076,11 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J99" t="n">
         <v>24</v>
       </c>
@@ -4039,9 +4117,11 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J100" t="n">
         <v>24</v>
       </c>
@@ -4078,9 +4158,11 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J101" t="n">
         <v>24</v>
       </c>
@@ -4117,9 +4199,11 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J102" t="n">
         <v>24</v>
       </c>
@@ -4156,9 +4240,11 @@
         <v>1987320.810680332</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J103" t="n">
         <v>24</v>
       </c>
@@ -4195,9 +4281,11 @@
         <v>1929871.266580332</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>24.1</v>
+      </c>
       <c r="J104" t="n">
         <v>24</v>
       </c>
@@ -4234,9 +4322,11 @@
         <v>1929871.266580332</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>24</v>
+      </c>
       <c r="J105" t="n">
         <v>24</v>
       </c>
@@ -4273,9 +4363,11 @@
         <v>1995603.419080332</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>24</v>
+      </c>
       <c r="J106" t="n">
         <v>24</v>
       </c>
@@ -4312,9 +4404,11 @@
         <v>1977032.795580332</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J107" t="n">
         <v>24</v>
       </c>
@@ -4351,9 +4445,11 @@
         <v>2006900.835480332</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>23.9</v>
+      </c>
       <c r="J108" t="n">
         <v>24</v>
       </c>
@@ -4390,9 +4486,11 @@
         <v>2006900.835480332</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>24</v>
+      </c>
       <c r="J109" t="n">
         <v>24</v>
       </c>
@@ -4429,9 +4527,11 @@
         <v>2006900.835480332</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>24</v>
+      </c>
       <c r="J110" t="n">
         <v>24</v>
       </c>
@@ -4468,9 +4568,11 @@
         <v>1952760.200280332</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>24</v>
+      </c>
       <c r="J111" t="n">
         <v>24</v>
       </c>
@@ -4548,9 +4650,11 @@
         <v>2005845.882480332</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J113" t="n">
         <v>24</v>
       </c>
@@ -4587,9 +4691,11 @@
         <v>2009902.882480332</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>23.7</v>
+      </c>
       <c r="J114" t="n">
         <v>24</v>
       </c>
@@ -4626,9 +4732,11 @@
         <v>2013918.882480332</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>24</v>
+      </c>
       <c r="J115" t="n">
         <v>24</v>
       </c>
@@ -4665,9 +4773,11 @@
         <v>2003835.555880332</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>24.2</v>
+      </c>
       <c r="J116" t="n">
         <v>24</v>
       </c>
@@ -4704,9 +4814,11 @@
         <v>2113298.563780332</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>24.1</v>
+      </c>
       <c r="J117" t="n">
         <v>24</v>
       </c>
@@ -4743,9 +4855,11 @@
         <v>2183217.563780332</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J118" t="n">
         <v>24</v>
       </c>
@@ -4782,9 +4896,11 @@
         <v>2183217.563780332</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J119" t="n">
         <v>24</v>
       </c>
@@ -4821,9 +4937,11 @@
         <v>2183217.563780332</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J120" t="n">
         <v>24</v>
       </c>
@@ -4860,9 +4978,11 @@
         <v>2362145.449880333</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J121" t="n">
         <v>24</v>
       </c>
@@ -4899,9 +5019,11 @@
         <v>2362145.449880333</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J122" t="n">
         <v>24</v>
       </c>
@@ -4938,9 +5060,11 @@
         <v>2444013.951880333</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J123" t="n">
         <v>24</v>
       </c>
@@ -4977,9 +5101,11 @@
         <v>2440853.671680333</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>24.7</v>
+      </c>
       <c r="J124" t="n">
         <v>24</v>
       </c>
@@ -5016,9 +5142,11 @@
         <v>2440853.671680333</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J125" t="n">
         <v>24</v>
       </c>
@@ -5211,9 +5339,11 @@
         <v>2391092.498880333</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J130" t="n">
         <v>24</v>
       </c>
@@ -5250,9 +5380,11 @@
         <v>2391102.498880333</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J131" t="n">
         <v>24</v>
       </c>
@@ -5289,9 +5421,11 @@
         <v>2309233.996980333</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J132" t="n">
         <v>24</v>
       </c>
@@ -5328,9 +5462,11 @@
         <v>2309243.996980333</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>22.7</v>
+      </c>
       <c r="J133" t="n">
         <v>24</v>
       </c>
@@ -5367,9 +5503,11 @@
         <v>2560527.332880333</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>24.5</v>
+      </c>
       <c r="J134" t="n">
         <v>24</v>
       </c>
@@ -7200,7 +7338,7 @@
         <v>3528220.617004113</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
@@ -7208,13 +7346,15 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>1.12</v>
+      </c>
+      <c r="M181" t="n">
+        <v>1.059071729957806</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7242,14 +7382,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>24</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7281,14 +7415,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>24</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7320,14 +7448,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>24</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7359,14 +7481,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>24</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7398,14 +7514,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>24</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7437,14 +7547,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>24</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7476,14 +7580,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>24</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7515,14 +7613,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>24</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7554,14 +7646,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>24</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7590,17 +7676,11 @@
         <v>3304289.49061152</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>24</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7629,17 +7709,11 @@
         <v>3269785.86201152</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>24</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7668,17 +7742,11 @@
         <v>3228863.81521152</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>24</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7707,17 +7775,11 @@
         <v>3239976.72881152</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>24</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7746,17 +7808,11 @@
         <v>3194938.43191152</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>24</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7785,17 +7841,11 @@
         <v>3194938.43191152</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>24</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7824,17 +7874,11 @@
         <v>3133235.48331152</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>24</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7863,17 +7907,11 @@
         <v>3160992.06221152</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>24</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7902,17 +7940,11 @@
         <v>3137154.86661152</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>24</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7941,17 +7973,11 @@
         <v>2964349.59901152</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>24</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7980,17 +8006,11 @@
         <v>2964349.59901152</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>24</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8022,14 +8042,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>24</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8058,17 +8072,11 @@
         <v>3034508.76081152</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>24</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8097,17 +8105,11 @@
         <v>3007448.74641152</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>24</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8139,14 +8141,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>24</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8178,14 +8174,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>24</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8217,14 +8207,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>24</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8256,14 +8240,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>24</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8295,14 +8273,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>24</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8334,14 +8306,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>24</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8370,17 +8336,11 @@
         <v>2987124.12631152</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>24</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8412,14 +8372,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>24</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8451,14 +8405,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>24</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8490,14 +8438,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>24</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8529,14 +8471,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>24</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8568,14 +8504,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>24</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8607,14 +8537,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>24</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8646,14 +8570,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>24</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8685,14 +8603,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>24</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8724,14 +8636,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>24</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8763,14 +8669,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>24</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8802,14 +8702,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>24</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8841,14 +8735,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>24</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8880,14 +8768,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>24</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8919,14 +8801,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>24</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8958,14 +8834,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>24</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8997,14 +8867,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>24</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9036,14 +8900,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>24</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9075,14 +8933,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>24</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9114,14 +8966,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>24</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9153,14 +8999,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>24</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9192,14 +9032,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>24</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9231,14 +9065,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>24</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9270,14 +9098,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>24</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9309,14 +9131,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>24</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9348,14 +9164,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>24</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9387,14 +9197,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>24</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9426,14 +9230,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>24</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9465,14 +9263,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>24</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9504,14 +9296,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>24</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9543,14 +9329,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>24</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9582,14 +9362,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>24</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9621,14 +9395,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>24</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9660,14 +9428,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>24</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9699,14 +9461,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>24</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9738,14 +9494,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>24</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9777,14 +9527,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>24</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9816,14 +9560,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>24</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9855,14 +9593,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>24</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9894,14 +9626,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>24</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9933,14 +9659,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>24</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9972,14 +9692,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>24</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10011,14 +9725,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>24</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10050,14 +9758,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>24</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10089,14 +9791,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>24</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10128,14 +9824,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>24</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10167,14 +9857,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>24</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10206,14 +9890,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>24</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10245,14 +9923,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>24</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10284,14 +9956,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>24</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10323,14 +9989,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>24</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10362,14 +10022,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>24</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10401,14 +10055,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>24</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10440,14 +10088,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>24</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10479,14 +10121,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>24</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10518,14 +10154,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>24</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10557,14 +10187,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>24</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10596,14 +10220,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>24</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10635,14 +10253,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>24</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10674,14 +10286,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>24</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10713,14 +10319,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>24</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10752,14 +10352,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>24</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10791,14 +10385,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>24</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10830,14 +10418,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>24</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10869,14 +10451,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>24</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10908,14 +10484,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>24</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10947,14 +10517,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>24</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10986,14 +10550,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>24</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11025,14 +10583,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>24</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11064,14 +10616,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>24</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11103,14 +10649,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>24</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11142,14 +10682,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>24</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11181,14 +10715,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>24</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11220,14 +10748,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>24</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11259,14 +10781,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>24</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11298,14 +10814,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>24</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11337,14 +10847,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>24</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11376,14 +10880,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>24</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11415,14 +10913,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>24</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11454,14 +10946,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>24</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11493,14 +10979,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>24</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11532,14 +11012,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>24</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11571,14 +11045,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>24</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11610,14 +11078,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>24</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11649,14 +11111,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>24</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11688,14 +11144,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>24</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11727,14 +11177,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>24</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11766,14 +11210,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>24</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11805,14 +11243,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>24</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11844,14 +11276,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>24</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11883,14 +11309,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>24</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11922,14 +11342,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>24</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11961,14 +11375,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>24</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12000,14 +11408,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>24</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12039,14 +11441,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>24</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12078,14 +11474,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>24</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12117,14 +11507,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>24</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12156,14 +11540,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>24</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12195,14 +11573,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>24</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12234,14 +11606,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>24</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12273,14 +11639,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>24</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12312,14 +11672,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>24</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12351,14 +11705,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>24</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12390,14 +11738,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>24</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12429,14 +11771,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>24</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12468,14 +11804,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>24</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12507,14 +11837,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>24</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12546,14 +11870,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>24</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12585,14 +11903,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>24</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12624,14 +11936,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>24</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12663,14 +11969,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>24</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12702,14 +12002,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>24</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12741,14 +12035,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>24</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12780,14 +12068,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>24</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12819,14 +12101,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>24</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12858,14 +12134,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>24</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12897,14 +12167,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>24</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12936,14 +12200,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>24</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12975,14 +12233,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>24</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13014,14 +12266,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>24</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13053,14 +12299,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>24</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13092,14 +12332,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>24</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13131,14 +12365,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>24</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13170,14 +12398,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>24</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13209,14 +12431,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>24</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13248,14 +12464,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>24</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13287,14 +12497,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>24</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13326,14 +12530,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>24</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13365,14 +12563,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>24</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13404,14 +12596,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>24</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13443,14 +12629,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>24</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13482,14 +12662,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>24</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13521,14 +12695,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>24</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13560,14 +12728,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>24</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13599,14 +12761,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>24</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13638,14 +12794,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>24</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13677,14 +12827,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>24</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13716,14 +12860,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>24</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13755,14 +12893,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>24</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13794,14 +12926,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>24</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13833,14 +12959,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>24</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13872,14 +12992,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>24</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13911,14 +13025,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>24</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13950,14 +13058,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>24</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13989,14 +13091,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>24</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14028,14 +13124,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>24</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14067,14 +13157,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>24</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14106,14 +13190,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>24</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14145,14 +13223,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>24</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14184,14 +13256,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>24</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14223,14 +13289,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>24</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14262,14 +13322,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>24</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14301,14 +13355,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>24</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14340,14 +13388,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>24</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14379,14 +13421,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>24</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14418,14 +13454,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>24</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14457,14 +13487,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>24</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14496,14 +13520,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>24</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14535,14 +13553,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>24</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14574,14 +13586,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>24</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14613,14 +13619,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>24</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14652,14 +13652,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>24</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14691,14 +13685,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>24</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14730,14 +13718,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>24</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14769,14 +13751,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>24</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14808,14 +13784,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>24</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14847,14 +13817,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>24</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14886,14 +13850,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>24</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14925,14 +13883,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>24</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14964,14 +13916,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>24</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15003,14 +13949,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>24</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15042,14 +13982,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>24</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15081,14 +14015,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>24</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15120,14 +14048,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>24</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15159,14 +14081,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>24</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15198,14 +14114,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>24</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15237,14 +14147,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>24</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15276,14 +14180,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>24</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15315,14 +14213,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>24</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15354,14 +14246,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>24</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15393,14 +14279,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>24</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15432,14 +14312,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>24</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15471,14 +14345,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>24</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15510,14 +14378,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>24</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15549,14 +14411,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>24</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15588,14 +14444,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>24</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15627,14 +14477,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>24</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15666,14 +14510,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>24</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15705,14 +14543,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>24</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15744,14 +14576,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>24</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15783,14 +14609,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>24</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15822,14 +14642,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>24</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15861,14 +14675,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>24</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15900,14 +14708,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>24</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15939,14 +14741,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>24</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15978,14 +14774,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>24</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16017,14 +14807,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>24</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16056,14 +14840,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>24</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16095,14 +14873,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>24</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16134,14 +14906,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>24</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16173,14 +14939,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>24</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16212,14 +14972,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>24</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16251,14 +15005,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>24</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16290,14 +15038,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>24</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16329,14 +15071,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>24</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16368,14 +15104,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>24</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
